--- a/resource/Paphyrus/관리자/3. 관리자_지종설정.xlsx
+++ b/resource/Paphyrus/관리자/3. 관리자_지종설정.xlsx
@@ -1313,7 +1313,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1324,8 +1324,8 @@
   <dimension ref="A1:I1091"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A1003" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G1018" sqref="G1018"/>
+      <pane ySplit="1" topLeftCell="A32" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C38" sqref="C38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="17.25" x14ac:dyDescent="0.3"/>
@@ -25341,5 +25341,6 @@
   </sortState>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/resource/Paphyrus/관리자/3. 관리자_지종설정.xlsx
+++ b/resource/Paphyrus/관리자/3. 관리자_지종설정.xlsx
@@ -10,7 +10,7 @@
     <sheet name="지종" sheetId="3" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">지종!$A$1:$I$1025</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">지종!$A$1:$I$1091</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -1313,7 +1313,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1321,11 +1321,12 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr filterMode="1"/>
   <dimension ref="A1:I1091"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A32" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C38" sqref="C38"/>
+      <pane ySplit="1" topLeftCell="A981" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C995" sqref="C995"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="17.25" x14ac:dyDescent="0.3"/>
@@ -1362,7 +1363,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>296</v>
       </c>
@@ -1379,7 +1380,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>296</v>
       </c>
@@ -1399,7 +1400,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>296</v>
       </c>
@@ -1416,7 +1417,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>296</v>
       </c>
@@ -1436,7 +1437,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
         <v>296</v>
       </c>
@@ -1453,7 +1454,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
         <v>296</v>
       </c>
@@ -1473,7 +1474,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
         <v>296</v>
       </c>
@@ -1490,7 +1491,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
         <v>296</v>
       </c>
@@ -1510,7 +1511,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
         <v>296</v>
       </c>
@@ -1527,7 +1528,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
         <v>296</v>
       </c>
@@ -1547,7 +1548,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
         <v>296</v>
       </c>
@@ -1570,7 +1571,7 @@
         <v>301</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
         <v>296</v>
       </c>
@@ -1596,7 +1597,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
         <v>296</v>
       </c>
@@ -1613,7 +1614,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A15" s="1" t="s">
         <v>296</v>
       </c>
@@ -1633,7 +1634,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
         <v>296</v>
       </c>
@@ -1650,7 +1651,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A17" s="1" t="s">
         <v>296</v>
       </c>
@@ -1670,7 +1671,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A18" s="1" t="s">
         <v>296</v>
       </c>
@@ -1687,7 +1688,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
         <v>296</v>
       </c>
@@ -1707,7 +1708,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
         <v>296</v>
       </c>
@@ -1724,7 +1725,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A21" s="1" t="s">
         <v>296</v>
       </c>
@@ -1744,7 +1745,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
         <v>296</v>
       </c>
@@ -1761,7 +1762,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A23" s="1" t="s">
         <v>296</v>
       </c>
@@ -1781,7 +1782,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
         <v>296</v>
       </c>
@@ -1798,7 +1799,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
         <v>296</v>
       </c>
@@ -1818,7 +1819,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A26" s="1" t="s">
         <v>296</v>
       </c>
@@ -1835,7 +1836,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A27" s="1" t="s">
         <v>296</v>
       </c>
@@ -1855,7 +1856,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
         <v>296</v>
       </c>
@@ -1872,7 +1873,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A29" s="1" t="s">
         <v>296</v>
       </c>
@@ -1892,7 +1893,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A30" s="1" t="s">
         <v>296</v>
       </c>
@@ -1909,7 +1910,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A31" s="1" t="s">
         <v>296</v>
       </c>
@@ -1929,7 +1930,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A32" s="1" t="s">
         <v>296</v>
       </c>
@@ -1946,7 +1947,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A33" s="1" t="s">
         <v>296</v>
       </c>
@@ -1966,7 +1967,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A34" s="1" t="s">
         <v>296</v>
       </c>
@@ -1983,7 +1984,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A35" s="1" t="s">
         <v>296</v>
       </c>
@@ -2003,7 +2004,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A36" s="1" t="s">
         <v>296</v>
       </c>
@@ -2020,7 +2021,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A37" s="1" t="s">
         <v>296</v>
       </c>
@@ -2040,7 +2041,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A38" s="1" t="s">
         <v>296</v>
       </c>
@@ -2057,7 +2058,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A39" s="1" t="s">
         <v>296</v>
       </c>
@@ -2077,7 +2078,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A40" s="1" t="s">
         <v>296</v>
       </c>
@@ -2094,7 +2095,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A41" s="1" t="s">
         <v>296</v>
       </c>
@@ -2114,7 +2115,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="42" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A42" s="1" t="s">
         <v>296</v>
       </c>
@@ -2131,7 +2132,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="43" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A43" s="1" t="s">
         <v>296</v>
       </c>
@@ -2151,7 +2152,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="44" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A44" s="1" t="s">
         <v>296</v>
       </c>
@@ -2168,7 +2169,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="45" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A45" s="1" t="s">
         <v>296</v>
       </c>
@@ -2188,7 +2189,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="46" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A46" s="1" t="s">
         <v>296</v>
       </c>
@@ -2205,7 +2206,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="47" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A47" s="1" t="s">
         <v>296</v>
       </c>
@@ -2225,7 +2226,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="48" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A48" s="1" t="s">
         <v>296</v>
       </c>
@@ -2242,7 +2243,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="49" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A49" s="1" t="s">
         <v>296</v>
       </c>
@@ -2262,7 +2263,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="50" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A50" s="1" t="s">
         <v>296</v>
       </c>
@@ -2279,7 +2280,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="51" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A51" s="1" t="s">
         <v>296</v>
       </c>
@@ -2299,7 +2300,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="52" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A52" s="1" t="s">
         <v>296</v>
       </c>
@@ -2322,7 +2323,7 @@
         <v>302</v>
       </c>
     </row>
-    <row r="53" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A53" s="1" t="s">
         <v>296</v>
       </c>
@@ -2348,7 +2349,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="54" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A54" s="1" t="s">
         <v>296</v>
       </c>
@@ -2371,7 +2372,7 @@
         <v>303</v>
       </c>
     </row>
-    <row r="55" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A55" s="1" t="s">
         <v>296</v>
       </c>
@@ -2397,7 +2398,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="56" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A56" s="1" t="s">
         <v>296</v>
       </c>
@@ -2420,7 +2421,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="57" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A57" s="1" t="s">
         <v>296</v>
       </c>
@@ -2446,7 +2447,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="58" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A58" s="1" t="s">
         <v>296</v>
       </c>
@@ -2469,7 +2470,7 @@
         <v>305</v>
       </c>
     </row>
-    <row r="59" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A59" s="1" t="s">
         <v>296</v>
       </c>
@@ -2495,7 +2496,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="60" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A60" s="1" t="s">
         <v>296</v>
       </c>
@@ -2512,7 +2513,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="61" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A61" s="1" t="s">
         <v>296</v>
       </c>
@@ -2532,7 +2533,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="62" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A62" s="1" t="s">
         <v>296</v>
       </c>
@@ -2549,7 +2550,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="63" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A63" s="1" t="s">
         <v>296</v>
       </c>
@@ -2569,7 +2570,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="64" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A64" s="1" t="s">
         <v>296</v>
       </c>
@@ -2586,7 +2587,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="65" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A65" s="1" t="s">
         <v>296</v>
       </c>
@@ -2606,7 +2607,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="66" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A66" s="1" t="s">
         <v>296</v>
       </c>
@@ -2623,7 +2624,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="67" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A67" s="1" t="s">
         <v>296</v>
       </c>
@@ -2643,7 +2644,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="68" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A68" s="1" t="s">
         <v>1</v>
       </c>
@@ -2666,7 +2667,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="69" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A69" s="1" t="s">
         <v>1</v>
       </c>
@@ -2692,7 +2693,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="70" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A70" s="1" t="s">
         <v>1</v>
       </c>
@@ -2715,7 +2716,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="71" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A71" s="1" t="s">
         <v>1</v>
       </c>
@@ -2741,7 +2742,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="72" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A72" s="1" t="s">
         <v>1</v>
       </c>
@@ -2764,7 +2765,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="73" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A73" s="1" t="s">
         <v>1</v>
       </c>
@@ -2790,7 +2791,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="74" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A74" s="1" t="s">
         <v>1</v>
       </c>
@@ -2813,7 +2814,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="75" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A75" s="1" t="s">
         <v>1</v>
       </c>
@@ -2839,7 +2840,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="76" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A76" s="1" t="s">
         <v>1</v>
       </c>
@@ -2862,7 +2863,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="77" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A77" s="1" t="s">
         <v>1</v>
       </c>
@@ -2888,7 +2889,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="78" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A78" s="1" t="s">
         <v>1</v>
       </c>
@@ -2911,7 +2912,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="79" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A79" s="1" t="s">
         <v>1</v>
       </c>
@@ -2937,7 +2938,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="80" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A80" s="1" t="s">
         <v>1</v>
       </c>
@@ -2960,7 +2961,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="81" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A81" s="1" t="s">
         <v>1</v>
       </c>
@@ -2986,7 +2987,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="82" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A82" s="1" t="s">
         <v>1</v>
       </c>
@@ -3009,7 +3010,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="83" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A83" s="1" t="s">
         <v>1</v>
       </c>
@@ -3035,7 +3036,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="84" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A84" s="1" t="s">
         <v>1</v>
       </c>
@@ -3058,7 +3059,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="85" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A85" s="1" t="s">
         <v>1</v>
       </c>
@@ -3084,7 +3085,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="86" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A86" s="1" t="s">
         <v>1</v>
       </c>
@@ -3107,7 +3108,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="87" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A87" s="1" t="s">
         <v>1</v>
       </c>
@@ -3133,7 +3134,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="88" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A88" s="1" t="s">
         <v>1</v>
       </c>
@@ -3156,7 +3157,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="89" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A89" s="1" t="s">
         <v>1</v>
       </c>
@@ -3182,7 +3183,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="90" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A90" s="1" t="s">
         <v>1</v>
       </c>
@@ -3205,7 +3206,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="91" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A91" s="1" t="s">
         <v>1</v>
       </c>
@@ -3231,7 +3232,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="92" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A92" s="1" t="s">
         <v>1</v>
       </c>
@@ -3254,7 +3255,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="93" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A93" s="1" t="s">
         <v>1</v>
       </c>
@@ -3280,7 +3281,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="94" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A94" s="1" t="s">
         <v>1</v>
       </c>
@@ -3303,7 +3304,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="95" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A95" s="1" t="s">
         <v>1</v>
       </c>
@@ -3329,7 +3330,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="96" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A96" s="1" t="s">
         <v>1</v>
       </c>
@@ -3352,7 +3353,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="97" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A97" s="1" t="s">
         <v>1</v>
       </c>
@@ -3378,7 +3379,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="98" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A98" s="1" t="s">
         <v>1</v>
       </c>
@@ -3401,7 +3402,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="99" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A99" s="1" t="s">
         <v>1</v>
       </c>
@@ -3427,7 +3428,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="100" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A100" s="1" t="s">
         <v>1</v>
       </c>
@@ -3450,7 +3451,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="101" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A101" s="1" t="s">
         <v>1</v>
       </c>
@@ -3476,7 +3477,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="102" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A102" s="1" t="s">
         <v>1</v>
       </c>
@@ -3499,7 +3500,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="103" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A103" s="1" t="s">
         <v>1</v>
       </c>
@@ -3525,7 +3526,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="104" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A104" s="1" t="s">
         <v>1</v>
       </c>
@@ -3548,7 +3549,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="105" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A105" s="1" t="s">
         <v>1</v>
       </c>
@@ -3574,7 +3575,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="106" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A106" s="1" t="s">
         <v>1</v>
       </c>
@@ -3597,7 +3598,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="107" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A107" s="1" t="s">
         <v>1</v>
       </c>
@@ -3623,7 +3624,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="108" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A108" s="1" t="s">
         <v>1</v>
       </c>
@@ -3646,7 +3647,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="109" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A109" s="1" t="s">
         <v>1</v>
       </c>
@@ -3672,7 +3673,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="110" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A110" s="1" t="s">
         <v>1</v>
       </c>
@@ -3695,7 +3696,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="111" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A111" s="1" t="s">
         <v>1</v>
       </c>
@@ -3721,7 +3722,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="112" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A112" s="1" t="s">
         <v>1</v>
       </c>
@@ -3744,7 +3745,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="113" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A113" s="1" t="s">
         <v>1</v>
       </c>
@@ -3770,7 +3771,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="114" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A114" s="1" t="s">
         <v>1</v>
       </c>
@@ -3793,7 +3794,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="115" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A115" s="1" t="s">
         <v>1</v>
       </c>
@@ -3819,7 +3820,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="116" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A116" s="1" t="s">
         <v>1</v>
       </c>
@@ -3842,7 +3843,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="117" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A117" s="1" t="s">
         <v>1</v>
       </c>
@@ -3868,7 +3869,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="118" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A118" s="1" t="s">
         <v>1</v>
       </c>
@@ -3891,7 +3892,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="119" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A119" s="1" t="s">
         <v>1</v>
       </c>
@@ -3917,7 +3918,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="120" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A120" s="1" t="s">
         <v>1</v>
       </c>
@@ -3940,7 +3941,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="121" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A121" s="1" t="s">
         <v>1</v>
       </c>
@@ -3966,7 +3967,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="122" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A122" s="1" t="s">
         <v>1</v>
       </c>
@@ -3989,7 +3990,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="123" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A123" s="1" t="s">
         <v>1</v>
       </c>
@@ -4015,7 +4016,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="124" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A124" s="1" t="s">
         <v>1</v>
       </c>
@@ -4038,7 +4039,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="125" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A125" s="1" t="s">
         <v>1</v>
       </c>
@@ -4064,7 +4065,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="126" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A126" s="1" t="s">
         <v>1</v>
       </c>
@@ -4087,7 +4088,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="127" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A127" s="1" t="s">
         <v>1</v>
       </c>
@@ -4113,7 +4114,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="128" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A128" s="1" t="s">
         <v>1</v>
       </c>
@@ -4136,7 +4137,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="129" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A129" s="1" t="s">
         <v>1</v>
       </c>
@@ -4162,7 +4163,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="130" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A130" s="1" t="s">
         <v>1</v>
       </c>
@@ -4185,7 +4186,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="131" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A131" s="1" t="s">
         <v>1</v>
       </c>
@@ -4211,7 +4212,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="132" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A132" s="1" t="s">
         <v>1</v>
       </c>
@@ -4234,7 +4235,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="133" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A133" s="1" t="s">
         <v>1</v>
       </c>
@@ -4260,7 +4261,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="134" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A134" s="1" t="s">
         <v>1</v>
       </c>
@@ -4283,7 +4284,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="135" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A135" s="1" t="s">
         <v>1</v>
       </c>
@@ -4309,7 +4310,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="136" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A136" s="1" t="s">
         <v>1</v>
       </c>
@@ -4332,7 +4333,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="137" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A137" s="1" t="s">
         <v>1</v>
       </c>
@@ -4358,7 +4359,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="138" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A138" s="1" t="s">
         <v>1</v>
       </c>
@@ -4381,7 +4382,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="139" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A139" s="1" t="s">
         <v>1</v>
       </c>
@@ -4407,7 +4408,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="140" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A140" s="1" t="s">
         <v>1</v>
       </c>
@@ -4430,7 +4431,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="141" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A141" s="1" t="s">
         <v>1</v>
       </c>
@@ -4456,7 +4457,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="142" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A142" s="1" t="s">
         <v>1</v>
       </c>
@@ -4479,7 +4480,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="143" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A143" s="1" t="s">
         <v>1</v>
       </c>
@@ -4505,7 +4506,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="144" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A144" s="1" t="s">
         <v>1</v>
       </c>
@@ -4528,7 +4529,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="145" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A145" s="1" t="s">
         <v>1</v>
       </c>
@@ -4554,7 +4555,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="146" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A146" s="1" t="s">
         <v>1</v>
       </c>
@@ -4577,7 +4578,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="147" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A147" s="1" t="s">
         <v>1</v>
       </c>
@@ -4603,7 +4604,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="148" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A148" s="1" t="s">
         <v>1</v>
       </c>
@@ -4626,7 +4627,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="149" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A149" s="1" t="s">
         <v>1</v>
       </c>
@@ -4652,7 +4653,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="150" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A150" s="1" t="s">
         <v>1</v>
       </c>
@@ -4675,7 +4676,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="151" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A151" s="1" t="s">
         <v>1</v>
       </c>
@@ -4701,7 +4702,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="152" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A152" s="1" t="s">
         <v>1</v>
       </c>
@@ -4724,7 +4725,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="153" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A153" s="1" t="s">
         <v>1</v>
       </c>
@@ -4750,7 +4751,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="154" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A154" s="1" t="s">
         <v>1</v>
       </c>
@@ -4773,7 +4774,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="155" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A155" s="1" t="s">
         <v>1</v>
       </c>
@@ -4799,7 +4800,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="156" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A156" s="1" t="s">
         <v>1</v>
       </c>
@@ -4822,7 +4823,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="157" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A157" s="1" t="s">
         <v>1</v>
       </c>
@@ -4848,7 +4849,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="158" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A158" s="1" t="s">
         <v>1</v>
       </c>
@@ -4871,7 +4872,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="159" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A159" s="1" t="s">
         <v>1</v>
       </c>
@@ -4897,7 +4898,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="160" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A160" s="1" t="s">
         <v>1</v>
       </c>
@@ -4920,7 +4921,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="161" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A161" s="1" t="s">
         <v>1</v>
       </c>
@@ -4946,7 +4947,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="162" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="162" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A162" s="1" t="s">
         <v>1</v>
       </c>
@@ -4969,7 +4970,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="163" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="163" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A163" s="1" t="s">
         <v>1</v>
       </c>
@@ -4995,7 +4996,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="164" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="164" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A164" s="1" t="s">
         <v>1</v>
       </c>
@@ -5018,7 +5019,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="165" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A165" s="1" t="s">
         <v>1</v>
       </c>
@@ -5044,7 +5045,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="166" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="166" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A166" s="1" t="s">
         <v>1</v>
       </c>
@@ -5067,7 +5068,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="167" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="167" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A167" s="1" t="s">
         <v>1</v>
       </c>
@@ -5093,7 +5094,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="168" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="168" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A168" s="1" t="s">
         <v>1</v>
       </c>
@@ -5116,7 +5117,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="169" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="169" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A169" s="1" t="s">
         <v>1</v>
       </c>
@@ -5142,7 +5143,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="170" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="170" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A170" s="1" t="s">
         <v>1</v>
       </c>
@@ -5165,7 +5166,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="171" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="171" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A171" s="1" t="s">
         <v>1</v>
       </c>
@@ -5191,7 +5192,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="172" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="172" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A172" s="1" t="s">
         <v>1</v>
       </c>
@@ -5214,7 +5215,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="173" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="173" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A173" s="1" t="s">
         <v>1</v>
       </c>
@@ -5240,7 +5241,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="174" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="174" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A174" s="1" t="s">
         <v>1</v>
       </c>
@@ -5263,7 +5264,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="175" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="175" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A175" s="1" t="s">
         <v>1</v>
       </c>
@@ -5289,7 +5290,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="176" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="176" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A176" s="1" t="s">
         <v>1</v>
       </c>
@@ -5312,7 +5313,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="177" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="177" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A177" s="1" t="s">
         <v>1</v>
       </c>
@@ -5338,7 +5339,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="178" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="178" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A178" s="1" t="s">
         <v>1</v>
       </c>
@@ -5361,7 +5362,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="179" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="179" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A179" s="1" t="s">
         <v>1</v>
       </c>
@@ -5387,7 +5388,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="180" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="180" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A180" s="1" t="s">
         <v>1</v>
       </c>
@@ -5410,7 +5411,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="181" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="181" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A181" s="1" t="s">
         <v>1</v>
       </c>
@@ -5436,7 +5437,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="182" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="182" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A182" s="1" t="s">
         <v>1</v>
       </c>
@@ -5459,7 +5460,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="183" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="183" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A183" s="1" t="s">
         <v>1</v>
       </c>
@@ -5485,7 +5486,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="184" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="184" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A184" s="1" t="s">
         <v>1</v>
       </c>
@@ -5508,7 +5509,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="185" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="185" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A185" s="1" t="s">
         <v>1</v>
       </c>
@@ -5534,7 +5535,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="186" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="186" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A186" s="1" t="s">
         <v>1</v>
       </c>
@@ -5557,7 +5558,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="187" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="187" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A187" s="1" t="s">
         <v>1</v>
       </c>
@@ -5583,7 +5584,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="188" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="188" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A188" s="1" t="s">
         <v>1</v>
       </c>
@@ -5606,7 +5607,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="189" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="189" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A189" s="1" t="s">
         <v>1</v>
       </c>
@@ -5632,7 +5633,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="190" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="190" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A190" s="1" t="s">
         <v>1</v>
       </c>
@@ -5655,7 +5656,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="191" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="191" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A191" s="1" t="s">
         <v>1</v>
       </c>
@@ -5681,7 +5682,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="192" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="192" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A192" s="1" t="s">
         <v>1</v>
       </c>
@@ -5704,7 +5705,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="193" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="193" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A193" s="1" t="s">
         <v>1</v>
       </c>
@@ -5730,7 +5731,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="194" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="194" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A194" s="1" t="s">
         <v>1</v>
       </c>
@@ -5753,7 +5754,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="195" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="195" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A195" s="1" t="s">
         <v>1</v>
       </c>
@@ -5779,7 +5780,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="196" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="196" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A196" s="1" t="s">
         <v>1</v>
       </c>
@@ -5802,7 +5803,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="197" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="197" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A197" s="1" t="s">
         <v>1</v>
       </c>
@@ -5828,7 +5829,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="198" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="198" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A198" s="1" t="s">
         <v>1</v>
       </c>
@@ -5851,7 +5852,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="199" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="199" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A199" s="1" t="s">
         <v>1</v>
       </c>
@@ -5877,7 +5878,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="200" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="200" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A200" s="1" t="s">
         <v>1</v>
       </c>
@@ -5900,7 +5901,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="201" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="201" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A201" s="1" t="s">
         <v>1</v>
       </c>
@@ -5926,7 +5927,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="202" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="202" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A202" s="1" t="s">
         <v>1</v>
       </c>
@@ -5949,7 +5950,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="203" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="203" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A203" s="1" t="s">
         <v>1</v>
       </c>
@@ -5975,7 +5976,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="204" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="204" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A204" s="1" t="s">
         <v>1</v>
       </c>
@@ -5998,7 +5999,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="205" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="205" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A205" s="1" t="s">
         <v>1</v>
       </c>
@@ -6024,7 +6025,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="206" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="206" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A206" s="1" t="s">
         <v>1</v>
       </c>
@@ -6047,7 +6048,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="207" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="207" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A207" s="1" t="s">
         <v>1</v>
       </c>
@@ -6073,7 +6074,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="208" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="208" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A208" s="1" t="s">
         <v>1</v>
       </c>
@@ -6096,7 +6097,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="209" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="209" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A209" s="1" t="s">
         <v>1</v>
       </c>
@@ -6122,7 +6123,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="210" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="210" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A210" s="1" t="s">
         <v>1</v>
       </c>
@@ -6145,7 +6146,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="211" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="211" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A211" s="1" t="s">
         <v>1</v>
       </c>
@@ -6171,7 +6172,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="212" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="212" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A212" s="1" t="s">
         <v>1</v>
       </c>
@@ -6194,7 +6195,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="213" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="213" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A213" s="1" t="s">
         <v>1</v>
       </c>
@@ -6220,7 +6221,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="214" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="214" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A214" s="1" t="s">
         <v>1</v>
       </c>
@@ -6243,7 +6244,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="215" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="215" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A215" s="1" t="s">
         <v>1</v>
       </c>
@@ -6269,7 +6270,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="216" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="216" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A216" s="1" t="s">
         <v>1</v>
       </c>
@@ -6292,7 +6293,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="217" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="217" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A217" s="1" t="s">
         <v>1</v>
       </c>
@@ -6318,7 +6319,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="218" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="218" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A218" s="1" t="s">
         <v>1</v>
       </c>
@@ -6341,7 +6342,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="219" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="219" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A219" s="1" t="s">
         <v>1</v>
       </c>
@@ -6367,7 +6368,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="220" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="220" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A220" s="1" t="s">
         <v>1</v>
       </c>
@@ -6390,7 +6391,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="221" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="221" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A221" s="1" t="s">
         <v>1</v>
       </c>
@@ -6416,7 +6417,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="222" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="222" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A222" s="1" t="s">
         <v>1</v>
       </c>
@@ -6439,7 +6440,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="223" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="223" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A223" s="1" t="s">
         <v>1</v>
       </c>
@@ -6465,7 +6466,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="224" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="224" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A224" s="1" t="s">
         <v>1</v>
       </c>
@@ -6488,7 +6489,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="225" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="225" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A225" s="1" t="s">
         <v>1</v>
       </c>
@@ -6514,7 +6515,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="226" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="226" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A226" s="1" t="s">
         <v>1</v>
       </c>
@@ -6537,7 +6538,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="227" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="227" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A227" s="1" t="s">
         <v>1</v>
       </c>
@@ -6563,7 +6564,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="228" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="228" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A228" s="1" t="s">
         <v>1</v>
       </c>
@@ -6586,7 +6587,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="229" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="229" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A229" s="1" t="s">
         <v>1</v>
       </c>
@@ -6612,7 +6613,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="230" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="230" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A230" s="1" t="s">
         <v>1</v>
       </c>
@@ -6635,7 +6636,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="231" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="231" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A231" s="1" t="s">
         <v>1</v>
       </c>
@@ -6661,7 +6662,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="232" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="232" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A232" s="1" t="s">
         <v>1</v>
       </c>
@@ -6684,7 +6685,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="233" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="233" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A233" s="1" t="s">
         <v>1</v>
       </c>
@@ -6710,7 +6711,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="234" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="234" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A234" s="1" t="s">
         <v>1</v>
       </c>
@@ -6733,7 +6734,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="235" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="235" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A235" s="1" t="s">
         <v>1</v>
       </c>
@@ -6759,7 +6760,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="236" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="236" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A236" s="1" t="s">
         <v>1</v>
       </c>
@@ -6782,7 +6783,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="237" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="237" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A237" s="1" t="s">
         <v>1</v>
       </c>
@@ -6808,7 +6809,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="238" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="238" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A238" s="1" t="s">
         <v>1</v>
       </c>
@@ -6831,7 +6832,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="239" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="239" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A239" s="1" t="s">
         <v>1</v>
       </c>
@@ -6857,7 +6858,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="240" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="240" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A240" s="1" t="s">
         <v>1</v>
       </c>
@@ -6880,7 +6881,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="241" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="241" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A241" s="1" t="s">
         <v>1</v>
       </c>
@@ -6906,7 +6907,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="242" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="242" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A242" s="1" t="s">
         <v>1</v>
       </c>
@@ -6929,7 +6930,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="243" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="243" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A243" s="1" t="s">
         <v>1</v>
       </c>
@@ -6955,7 +6956,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="244" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="244" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A244" s="1" t="s">
         <v>1</v>
       </c>
@@ -6978,7 +6979,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="245" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="245" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A245" s="1" t="s">
         <v>1</v>
       </c>
@@ -7004,7 +7005,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="246" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="246" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A246" s="1" t="s">
         <v>1</v>
       </c>
@@ -7027,7 +7028,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="247" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="247" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A247" s="1" t="s">
         <v>1</v>
       </c>
@@ -7053,7 +7054,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="248" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="248" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A248" s="1" t="s">
         <v>1</v>
       </c>
@@ -7076,7 +7077,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="249" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="249" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A249" s="1" t="s">
         <v>1</v>
       </c>
@@ -7102,7 +7103,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="250" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="250" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A250" s="1" t="s">
         <v>1</v>
       </c>
@@ -7125,7 +7126,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="251" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="251" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A251" s="1" t="s">
         <v>1</v>
       </c>
@@ -7151,7 +7152,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="252" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="252" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A252" s="1" t="s">
         <v>1</v>
       </c>
@@ -7174,7 +7175,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="253" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="253" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A253" s="1" t="s">
         <v>1</v>
       </c>
@@ -7200,7 +7201,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="254" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="254" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A254" s="1" t="s">
         <v>1</v>
       </c>
@@ -7223,7 +7224,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="255" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="255" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A255" s="1" t="s">
         <v>1</v>
       </c>
@@ -7249,7 +7250,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="256" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="256" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A256" s="1" t="s">
         <v>1</v>
       </c>
@@ -7272,7 +7273,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="257" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="257" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A257" s="1" t="s">
         <v>1</v>
       </c>
@@ -7298,7 +7299,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="258" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="258" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A258" s="1" t="s">
         <v>1</v>
       </c>
@@ -7321,7 +7322,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="259" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="259" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A259" s="1" t="s">
         <v>1</v>
       </c>
@@ -7347,7 +7348,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="260" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="260" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A260" s="1" t="s">
         <v>1</v>
       </c>
@@ -7370,7 +7371,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="261" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="261" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A261" s="1" t="s">
         <v>1</v>
       </c>
@@ -7396,7 +7397,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="262" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="262" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A262" s="1" t="s">
         <v>1</v>
       </c>
@@ -7419,7 +7420,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="263" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="263" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A263" s="1" t="s">
         <v>1</v>
       </c>
@@ -7445,7 +7446,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="264" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="264" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A264" s="1" t="s">
         <v>1</v>
       </c>
@@ -7468,7 +7469,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="265" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="265" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A265" s="1" t="s">
         <v>1</v>
       </c>
@@ -7494,7 +7495,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="266" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="266" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A266" s="1" t="s">
         <v>1</v>
       </c>
@@ -7517,7 +7518,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="267" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="267" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A267" s="1" t="s">
         <v>1</v>
       </c>
@@ -7543,7 +7544,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="268" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="268" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A268" s="1" t="s">
         <v>1</v>
       </c>
@@ -7566,7 +7567,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="269" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="269" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A269" s="1" t="s">
         <v>1</v>
       </c>
@@ -7592,7 +7593,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="270" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="270" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A270" s="1" t="s">
         <v>1</v>
       </c>
@@ -7615,7 +7616,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="271" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="271" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A271" s="1" t="s">
         <v>1</v>
       </c>
@@ -7641,7 +7642,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="272" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="272" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A272" s="1" t="s">
         <v>1</v>
       </c>
@@ -7664,7 +7665,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="273" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="273" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A273" s="1" t="s">
         <v>1</v>
       </c>
@@ -7690,7 +7691,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="274" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="274" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A274" s="1" t="s">
         <v>1</v>
       </c>
@@ -7713,7 +7714,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="275" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="275" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A275" s="1" t="s">
         <v>1</v>
       </c>
@@ -7739,7 +7740,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="276" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="276" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A276" s="1" t="s">
         <v>1</v>
       </c>
@@ -7762,7 +7763,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="277" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="277" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A277" s="1" t="s">
         <v>1</v>
       </c>
@@ -7788,7 +7789,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="278" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="278" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A278" s="1" t="s">
         <v>1</v>
       </c>
@@ -7811,7 +7812,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="279" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="279" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A279" s="1" t="s">
         <v>1</v>
       </c>
@@ -7837,7 +7838,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="280" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="280" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A280" s="1" t="s">
         <v>1</v>
       </c>
@@ -7860,7 +7861,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="281" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="281" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A281" s="1" t="s">
         <v>1</v>
       </c>
@@ -7886,7 +7887,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="282" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="282" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A282" s="1" t="s">
         <v>1</v>
       </c>
@@ -7909,7 +7910,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="283" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="283" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A283" s="1" t="s">
         <v>1</v>
       </c>
@@ -7935,7 +7936,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="284" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="284" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A284" s="1" t="s">
         <v>1</v>
       </c>
@@ -7958,7 +7959,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="285" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="285" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A285" s="1" t="s">
         <v>1</v>
       </c>
@@ -7984,7 +7985,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="286" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="286" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A286" s="1" t="s">
         <v>1</v>
       </c>
@@ -8007,7 +8008,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="287" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="287" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A287" s="1" t="s">
         <v>1</v>
       </c>
@@ -8033,7 +8034,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="288" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="288" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A288" s="1" t="s">
         <v>1</v>
       </c>
@@ -8056,7 +8057,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="289" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="289" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A289" s="1" t="s">
         <v>1</v>
       </c>
@@ -8082,7 +8083,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="290" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="290" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A290" s="1" t="s">
         <v>1</v>
       </c>
@@ -8105,7 +8106,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="291" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="291" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A291" s="1" t="s">
         <v>1</v>
       </c>
@@ -8131,7 +8132,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="292" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="292" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A292" s="1" t="s">
         <v>1</v>
       </c>
@@ -8154,7 +8155,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="293" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="293" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A293" s="1" t="s">
         <v>1</v>
       </c>
@@ -8180,7 +8181,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="294" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="294" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A294" s="1" t="s">
         <v>1</v>
       </c>
@@ -8203,7 +8204,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="295" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="295" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A295" s="1" t="s">
         <v>1</v>
       </c>
@@ -8229,7 +8230,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="296" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="296" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A296" s="1" t="s">
         <v>1</v>
       </c>
@@ -8252,7 +8253,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="297" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="297" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A297" s="1" t="s">
         <v>1</v>
       </c>
@@ -8278,7 +8279,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="298" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="298" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A298" s="1" t="s">
         <v>1</v>
       </c>
@@ -8301,7 +8302,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="299" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="299" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A299" s="1" t="s">
         <v>1</v>
       </c>
@@ -8327,7 +8328,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="300" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="300" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A300" s="1" t="s">
         <v>1</v>
       </c>
@@ -8350,7 +8351,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="301" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="301" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A301" s="1" t="s">
         <v>1</v>
       </c>
@@ -8376,7 +8377,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="302" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="302" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A302" s="1" t="s">
         <v>1</v>
       </c>
@@ -8399,7 +8400,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="303" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="303" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A303" s="1" t="s">
         <v>1</v>
       </c>
@@ -8425,7 +8426,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="304" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="304" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A304" s="1" t="s">
         <v>1</v>
       </c>
@@ -8448,7 +8449,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="305" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="305" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A305" s="1" t="s">
         <v>1</v>
       </c>
@@ -8474,7 +8475,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="306" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="306" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A306" s="1" t="s">
         <v>1</v>
       </c>
@@ -8497,7 +8498,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="307" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="307" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A307" s="1" t="s">
         <v>1</v>
       </c>
@@ -8523,7 +8524,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="308" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="308" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A308" s="1" t="s">
         <v>1</v>
       </c>
@@ -8546,7 +8547,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="309" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="309" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A309" s="1" t="s">
         <v>1</v>
       </c>
@@ -8572,7 +8573,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="310" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="310" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A310" s="1" t="s">
         <v>1</v>
       </c>
@@ -8595,7 +8596,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="311" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="311" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A311" s="1" t="s">
         <v>1</v>
       </c>
@@ -8621,7 +8622,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="312" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="312" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A312" s="1" t="s">
         <v>1</v>
       </c>
@@ -8644,7 +8645,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="313" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="313" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A313" s="1" t="s">
         <v>1</v>
       </c>
@@ -8670,7 +8671,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="314" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="314" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A314" s="1" t="s">
         <v>1</v>
       </c>
@@ -8693,7 +8694,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="315" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="315" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A315" s="1" t="s">
         <v>1</v>
       </c>
@@ -8719,7 +8720,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="316" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="316" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A316" s="1" t="s">
         <v>1</v>
       </c>
@@ -8742,7 +8743,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="317" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="317" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A317" s="1" t="s">
         <v>1</v>
       </c>
@@ -8768,7 +8769,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="318" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="318" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A318" s="1" t="s">
         <v>1</v>
       </c>
@@ -8791,7 +8792,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="319" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="319" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A319" s="1" t="s">
         <v>1</v>
       </c>
@@ -8817,7 +8818,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="320" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="320" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A320" s="1" t="s">
         <v>1</v>
       </c>
@@ -8840,7 +8841,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="321" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="321" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A321" s="1" t="s">
         <v>1</v>
       </c>
@@ -8866,7 +8867,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="322" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="322" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A322" s="1" t="s">
         <v>1</v>
       </c>
@@ -8889,7 +8890,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="323" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="323" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A323" s="1" t="s">
         <v>1</v>
       </c>
@@ -8915,7 +8916,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="324" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="324" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A324" s="1" t="s">
         <v>1</v>
       </c>
@@ -8938,7 +8939,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="325" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="325" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A325" s="1" t="s">
         <v>1</v>
       </c>
@@ -8964,7 +8965,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="326" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="326" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A326" s="1" t="s">
         <v>1</v>
       </c>
@@ -8987,7 +8988,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="327" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="327" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A327" s="1" t="s">
         <v>1</v>
       </c>
@@ -9013,7 +9014,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="328" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="328" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A328" s="1" t="s">
         <v>1</v>
       </c>
@@ -9036,7 +9037,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="329" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="329" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A329" s="1" t="s">
         <v>1</v>
       </c>
@@ -9062,7 +9063,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="330" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="330" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A330" s="1" t="s">
         <v>1</v>
       </c>
@@ -9085,7 +9086,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="331" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="331" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A331" s="1" t="s">
         <v>1</v>
       </c>
@@ -9111,7 +9112,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="332" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="332" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A332" s="1" t="s">
         <v>1</v>
       </c>
@@ -9134,7 +9135,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="333" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="333" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A333" s="1" t="s">
         <v>1</v>
       </c>
@@ -9160,7 +9161,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="334" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="334" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A334" s="1" t="s">
         <v>1</v>
       </c>
@@ -9183,7 +9184,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="335" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="335" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A335" s="1" t="s">
         <v>1</v>
       </c>
@@ -9209,7 +9210,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="336" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="336" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A336" s="1" t="s">
         <v>1</v>
       </c>
@@ -9232,7 +9233,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="337" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="337" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A337" s="1" t="s">
         <v>1</v>
       </c>
@@ -9258,7 +9259,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="338" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="338" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A338" s="1" t="s">
         <v>1</v>
       </c>
@@ -9281,7 +9282,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="339" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="339" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A339" s="1" t="s">
         <v>1</v>
       </c>
@@ -9307,7 +9308,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="340" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="340" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A340" s="1" t="s">
         <v>1</v>
       </c>
@@ -9330,7 +9331,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="341" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="341" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A341" s="1" t="s">
         <v>1</v>
       </c>
@@ -9356,7 +9357,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="342" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="342" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A342" s="1" t="s">
         <v>1</v>
       </c>
@@ -9379,7 +9380,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="343" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="343" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A343" s="1" t="s">
         <v>1</v>
       </c>
@@ -9405,7 +9406,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="344" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="344" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A344" s="1" t="s">
         <v>1</v>
       </c>
@@ -9428,7 +9429,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="345" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="345" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A345" s="1" t="s">
         <v>1</v>
       </c>
@@ -9454,7 +9455,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="346" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="346" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A346" s="1" t="s">
         <v>1</v>
       </c>
@@ -9477,7 +9478,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="347" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="347" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A347" s="1" t="s">
         <v>1</v>
       </c>
@@ -9503,7 +9504,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="348" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="348" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A348" s="1" t="s">
         <v>1</v>
       </c>
@@ -9526,7 +9527,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="349" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="349" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A349" s="1" t="s">
         <v>1</v>
       </c>
@@ -9552,7 +9553,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="350" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="350" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A350" s="1" t="s">
         <v>1</v>
       </c>
@@ -9575,7 +9576,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="351" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="351" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A351" s="1" t="s">
         <v>1</v>
       </c>
@@ -9601,7 +9602,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="352" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="352" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A352" s="1" t="s">
         <v>1</v>
       </c>
@@ -9624,7 +9625,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="353" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="353" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A353" s="1" t="s">
         <v>1</v>
       </c>
@@ -9650,7 +9651,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="354" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="354" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A354" s="1" t="s">
         <v>1</v>
       </c>
@@ -9673,7 +9674,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="355" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="355" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A355" s="1" t="s">
         <v>1</v>
       </c>
@@ -9699,7 +9700,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="356" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="356" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A356" s="1" t="s">
         <v>1</v>
       </c>
@@ -9722,7 +9723,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="357" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="357" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A357" s="1" t="s">
         <v>1</v>
       </c>
@@ -9748,7 +9749,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="358" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="358" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A358" s="1" t="s">
         <v>1</v>
       </c>
@@ -9771,7 +9772,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="359" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="359" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A359" s="1" t="s">
         <v>1</v>
       </c>
@@ -9797,7 +9798,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="360" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="360" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A360" s="1" t="s">
         <v>1</v>
       </c>
@@ -9820,7 +9821,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="361" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="361" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A361" s="1" t="s">
         <v>1</v>
       </c>
@@ -9846,7 +9847,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="362" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="362" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A362" s="1" t="s">
         <v>1</v>
       </c>
@@ -9869,7 +9870,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="363" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="363" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A363" s="1" t="s">
         <v>1</v>
       </c>
@@ -9895,7 +9896,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="364" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="364" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A364" s="1" t="s">
         <v>1</v>
       </c>
@@ -9918,7 +9919,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="365" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="365" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A365" s="1" t="s">
         <v>1</v>
       </c>
@@ -9944,7 +9945,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="366" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="366" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A366" s="1" t="s">
         <v>1</v>
       </c>
@@ -9967,7 +9968,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="367" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="367" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A367" s="1" t="s">
         <v>1</v>
       </c>
@@ -9993,7 +9994,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="368" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="368" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A368" s="1" t="s">
         <v>1</v>
       </c>
@@ -10016,7 +10017,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="369" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="369" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A369" s="1" t="s">
         <v>1</v>
       </c>
@@ -10042,7 +10043,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="370" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="370" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A370" s="1" t="s">
         <v>1</v>
       </c>
@@ -10065,7 +10066,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="371" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="371" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A371" s="1" t="s">
         <v>1</v>
       </c>
@@ -10091,7 +10092,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="372" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="372" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A372" s="1" t="s">
         <v>1</v>
       </c>
@@ -10114,7 +10115,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="373" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="373" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A373" s="1" t="s">
         <v>1</v>
       </c>
@@ -10140,7 +10141,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="374" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="374" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A374" s="1" t="s">
         <v>1</v>
       </c>
@@ -10163,7 +10164,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="375" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="375" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A375" s="1" t="s">
         <v>1</v>
       </c>
@@ -10189,7 +10190,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="376" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="376" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A376" s="1" t="s">
         <v>1</v>
       </c>
@@ -10212,7 +10213,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="377" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="377" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A377" s="1" t="s">
         <v>1</v>
       </c>
@@ -10238,7 +10239,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="378" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="378" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A378" s="1" t="s">
         <v>1</v>
       </c>
@@ -10261,7 +10262,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="379" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="379" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A379" s="1" t="s">
         <v>1</v>
       </c>
@@ -10287,7 +10288,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="380" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="380" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A380" s="1" t="s">
         <v>1</v>
       </c>
@@ -10310,7 +10311,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="381" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="381" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A381" s="1" t="s">
         <v>1</v>
       </c>
@@ -10336,7 +10337,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="382" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="382" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A382" s="1" t="s">
         <v>1</v>
       </c>
@@ -10359,7 +10360,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="383" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="383" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A383" s="1" t="s">
         <v>1</v>
       </c>
@@ -10385,7 +10386,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="384" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="384" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A384" s="1" t="s">
         <v>1</v>
       </c>
@@ -10408,7 +10409,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="385" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="385" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A385" s="1" t="s">
         <v>1</v>
       </c>
@@ -10434,7 +10435,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="386" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="386" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A386" s="1" t="s">
         <v>1</v>
       </c>
@@ -10457,7 +10458,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="387" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="387" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A387" s="1" t="s">
         <v>1</v>
       </c>
@@ -10483,7 +10484,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="388" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="388" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A388" s="1" t="s">
         <v>1</v>
       </c>
@@ -10506,7 +10507,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="389" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="389" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A389" s="1" t="s">
         <v>1</v>
       </c>
@@ -10532,7 +10533,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="390" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="390" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A390" s="1" t="s">
         <v>1</v>
       </c>
@@ -10555,7 +10556,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="391" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="391" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A391" s="1" t="s">
         <v>1</v>
       </c>
@@ -10581,7 +10582,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="392" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="392" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A392" s="1" t="s">
         <v>1</v>
       </c>
@@ -10604,7 +10605,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="393" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="393" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A393" s="1" t="s">
         <v>1</v>
       </c>
@@ -10630,7 +10631,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="394" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="394" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A394" s="1" t="s">
         <v>1</v>
       </c>
@@ -10653,7 +10654,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="395" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="395" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A395" s="1" t="s">
         <v>1</v>
       </c>
@@ -10679,7 +10680,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="396" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="396" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A396" s="1" t="s">
         <v>1</v>
       </c>
@@ -10702,7 +10703,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="397" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="397" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A397" s="1" t="s">
         <v>1</v>
       </c>
@@ -10728,7 +10729,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="398" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="398" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A398" s="1" t="s">
         <v>1</v>
       </c>
@@ -10751,7 +10752,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="399" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="399" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A399" s="1" t="s">
         <v>1</v>
       </c>
@@ -10777,7 +10778,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="400" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="400" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A400" s="1" t="s">
         <v>1</v>
       </c>
@@ -10794,7 +10795,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="401" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="401" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A401" s="1" t="s">
         <v>1</v>
       </c>
@@ -10814,7 +10815,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="402" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="402" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A402" s="1" t="s">
         <v>1</v>
       </c>
@@ -10831,7 +10832,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="403" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="403" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A403" s="1" t="s">
         <v>1</v>
       </c>
@@ -10851,7 +10852,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="404" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="404" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A404" s="1" t="s">
         <v>1</v>
       </c>
@@ -10868,7 +10869,7 @@
         <v>350</v>
       </c>
     </row>
-    <row r="405" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="405" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A405" s="1" t="s">
         <v>1</v>
       </c>
@@ -10888,7 +10889,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="406" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="406" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A406" s="1" t="s">
         <v>1</v>
       </c>
@@ -10905,7 +10906,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="407" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="407" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A407" s="1" t="s">
         <v>1</v>
       </c>
@@ -10925,7 +10926,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="408" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="408" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A408" s="1" t="s">
         <v>1</v>
       </c>
@@ -10942,7 +10943,7 @@
         <v>450</v>
       </c>
     </row>
-    <row r="409" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="409" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A409" s="1" t="s">
         <v>1</v>
       </c>
@@ -10962,7 +10963,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="410" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="410" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A410" s="1" t="s">
         <v>1</v>
       </c>
@@ -10979,7 +10980,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="411" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="411" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A411" s="1" t="s">
         <v>1</v>
       </c>
@@ -10999,7 +11000,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="412" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="412" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A412" s="1" t="s">
         <v>1</v>
       </c>
@@ -11016,7 +11017,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="413" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="413" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A413" s="1" t="s">
         <v>1</v>
       </c>
@@ -11036,7 +11037,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="414" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="414" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A414" s="1" t="s">
         <v>1</v>
       </c>
@@ -11053,7 +11054,7 @@
         <v>350</v>
       </c>
     </row>
-    <row r="415" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="415" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A415" s="1" t="s">
         <v>1</v>
       </c>
@@ -11073,7 +11074,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="416" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="416" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A416" s="1" t="s">
         <v>1</v>
       </c>
@@ -11090,7 +11091,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="417" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="417" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A417" s="1" t="s">
         <v>1</v>
       </c>
@@ -11110,7 +11111,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="418" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="418" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A418" s="1" t="s">
         <v>1</v>
       </c>
@@ -11127,7 +11128,7 @@
         <v>450</v>
       </c>
     </row>
-    <row r="419" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="419" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A419" s="1" t="s">
         <v>1</v>
       </c>
@@ -11147,7 +11148,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="420" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="420" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A420" s="1" t="s">
         <v>1</v>
       </c>
@@ -11164,7 +11165,7 @@
         <v>350</v>
       </c>
     </row>
-    <row r="421" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="421" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A421" s="1" t="s">
         <v>1</v>
       </c>
@@ -11184,7 +11185,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="422" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="422" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A422" s="1" t="s">
         <v>1</v>
       </c>
@@ -11201,7 +11202,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="423" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="423" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A423" s="1" t="s">
         <v>1</v>
       </c>
@@ -11221,7 +11222,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="424" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="424" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A424" s="1" t="s">
         <v>1</v>
       </c>
@@ -11238,7 +11239,7 @@
         <v>450</v>
       </c>
     </row>
-    <row r="425" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="425" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A425" s="1" t="s">
         <v>1</v>
       </c>
@@ -11258,7 +11259,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="426" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="426" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A426" s="1" t="s">
         <v>1</v>
       </c>
@@ -11275,7 +11276,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="427" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="427" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A427" s="1" t="s">
         <v>1</v>
       </c>
@@ -11295,7 +11296,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="428" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="428" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A428" s="1" t="s">
         <v>1</v>
       </c>
@@ -11312,7 +11313,7 @@
         <v>550</v>
       </c>
     </row>
-    <row r="429" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="429" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A429" s="1" t="s">
         <v>1</v>
       </c>
@@ -11332,7 +11333,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="430" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="430" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A430" s="1" t="s">
         <v>1</v>
       </c>
@@ -11349,7 +11350,7 @@
         <v>350</v>
       </c>
     </row>
-    <row r="431" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="431" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A431" s="1" t="s">
         <v>1</v>
       </c>
@@ -11369,7 +11370,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="432" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="432" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A432" s="1" t="s">
         <v>1</v>
       </c>
@@ -11386,7 +11387,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="433" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="433" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A433" s="1" t="s">
         <v>1</v>
       </c>
@@ -11406,7 +11407,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="434" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="434" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A434" s="1" t="s">
         <v>1</v>
       </c>
@@ -11423,7 +11424,7 @@
         <v>450</v>
       </c>
     </row>
-    <row r="435" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="435" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A435" s="1" t="s">
         <v>1</v>
       </c>
@@ -11443,7 +11444,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="436" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="436" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A436" s="1" t="s">
         <v>1</v>
       </c>
@@ -11460,7 +11461,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="437" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="437" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A437" s="1" t="s">
         <v>1</v>
       </c>
@@ -11480,7 +11481,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="438" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="438" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A438" s="1" t="s">
         <v>1</v>
       </c>
@@ -11497,7 +11498,7 @@
         <v>550</v>
       </c>
     </row>
-    <row r="439" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="439" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A439" s="1" t="s">
         <v>1</v>
       </c>
@@ -11517,7 +11518,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="440" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="440" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A440" s="1" t="s">
         <v>1</v>
       </c>
@@ -11540,7 +11541,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="441" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="441" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A441" s="1" t="s">
         <v>1</v>
       </c>
@@ -11566,7 +11567,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="442" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="442" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A442" s="1" t="s">
         <v>1</v>
       </c>
@@ -11589,7 +11590,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="443" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="443" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A443" s="1" t="s">
         <v>1</v>
       </c>
@@ -11615,7 +11616,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="444" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="444" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A444" s="1" t="s">
         <v>1</v>
       </c>
@@ -11632,7 +11633,7 @@
         <v>800</v>
       </c>
     </row>
-    <row r="445" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="445" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A445" s="1" t="s">
         <v>1</v>
       </c>
@@ -11652,7 +11653,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="446" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="446" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A446" s="1" t="s">
         <v>1</v>
       </c>
@@ -11669,7 +11670,7 @@
         <v>900</v>
       </c>
     </row>
-    <row r="447" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="447" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A447" s="1" t="s">
         <v>1</v>
       </c>
@@ -11689,7 +11690,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="448" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="448" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A448" s="1" t="s">
         <v>1</v>
       </c>
@@ -11707,7 +11708,7 @@
       </c>
       <c r="G448" s="2"/>
     </row>
-    <row r="449" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="449" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A449" s="1" t="s">
         <v>1</v>
       </c>
@@ -11728,7 +11729,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="450" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="450" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A450" s="1" t="s">
         <v>1</v>
       </c>
@@ -11746,7 +11747,7 @@
       </c>
       <c r="G450" s="2"/>
     </row>
-    <row r="451" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="451" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A451" s="1" t="s">
         <v>1</v>
       </c>
@@ -11767,7 +11768,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="452" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="452" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A452" s="1" t="s">
         <v>1</v>
       </c>
@@ -11785,7 +11786,7 @@
       </c>
       <c r="G452" s="2"/>
     </row>
-    <row r="453" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="453" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A453" s="1" t="s">
         <v>1</v>
       </c>
@@ -11806,7 +11807,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="454" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="454" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A454" s="1" t="s">
         <v>1</v>
       </c>
@@ -11824,7 +11825,7 @@
       </c>
       <c r="G454" s="2"/>
     </row>
-    <row r="455" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="455" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A455" s="1" t="s">
         <v>1</v>
       </c>
@@ -11845,7 +11846,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="456" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="456" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A456" s="1" t="s">
         <v>1</v>
       </c>
@@ -11863,7 +11864,7 @@
       </c>
       <c r="G456" s="2"/>
     </row>
-    <row r="457" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="457" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A457" s="1" t="s">
         <v>1</v>
       </c>
@@ -11884,7 +11885,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="458" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="458" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A458" s="1" t="s">
         <v>1</v>
       </c>
@@ -11902,7 +11903,7 @@
       </c>
       <c r="G458" s="2"/>
     </row>
-    <row r="459" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="459" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A459" s="1" t="s">
         <v>1</v>
       </c>
@@ -11923,7 +11924,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="460" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="460" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A460" s="1" t="s">
         <v>1</v>
       </c>
@@ -11941,7 +11942,7 @@
       </c>
       <c r="G460" s="2"/>
     </row>
-    <row r="461" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="461" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A461" s="1" t="s">
         <v>1</v>
       </c>
@@ -11962,7 +11963,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="462" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="462" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A462" s="1" t="s">
         <v>1</v>
       </c>
@@ -11980,7 +11981,7 @@
       </c>
       <c r="G462" s="2"/>
     </row>
-    <row r="463" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="463" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A463" s="1" t="s">
         <v>1</v>
       </c>
@@ -12001,7 +12002,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="464" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="464" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A464" s="1" t="s">
         <v>1</v>
       </c>
@@ -12019,7 +12020,7 @@
       </c>
       <c r="G464" s="2"/>
     </row>
-    <row r="465" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="465" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A465" s="1" t="s">
         <v>1</v>
       </c>
@@ -12040,7 +12041,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="466" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="466" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A466" s="1" t="s">
         <v>1</v>
       </c>
@@ -12058,7 +12059,7 @@
       </c>
       <c r="G466" s="2"/>
     </row>
-    <row r="467" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="467" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A467" s="1" t="s">
         <v>1</v>
       </c>
@@ -12079,7 +12080,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="468" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="468" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A468" s="1" t="s">
         <v>1</v>
       </c>
@@ -12096,7 +12097,7 @@
         <v>2000</v>
       </c>
     </row>
-    <row r="469" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="469" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A469" s="1" t="s">
         <v>1</v>
       </c>
@@ -12116,7 +12117,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="470" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="470" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A470" s="1" t="s">
         <v>1</v>
       </c>
@@ -12133,7 +12134,7 @@
         <v>2100</v>
       </c>
     </row>
-    <row r="471" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="471" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A471" s="1" t="s">
         <v>1</v>
       </c>
@@ -12153,7 +12154,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="472" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="472" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A472" s="1" t="s">
         <v>1</v>
       </c>
@@ -12170,7 +12171,7 @@
         <v>2200</v>
       </c>
     </row>
-    <row r="473" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="473" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A473" s="1" t="s">
         <v>1</v>
       </c>
@@ -12190,7 +12191,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="474" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="474" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A474" s="1" t="s">
         <v>1</v>
       </c>
@@ -12207,7 +12208,7 @@
         <v>800</v>
       </c>
     </row>
-    <row r="475" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="475" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A475" s="1" t="s">
         <v>1</v>
       </c>
@@ -12227,7 +12228,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="476" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="476" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A476" s="1" t="s">
         <v>1</v>
       </c>
@@ -12244,7 +12245,7 @@
         <v>900</v>
       </c>
     </row>
-    <row r="477" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="477" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A477" s="1" t="s">
         <v>1</v>
       </c>
@@ -12264,7 +12265,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="478" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="478" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A478" s="1" t="s">
         <v>1</v>
       </c>
@@ -12282,7 +12283,7 @@
       </c>
       <c r="G478" s="2"/>
     </row>
-    <row r="479" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="479" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A479" s="1" t="s">
         <v>1</v>
       </c>
@@ -12303,7 +12304,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="480" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="480" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A480" s="1" t="s">
         <v>1</v>
       </c>
@@ -12321,7 +12322,7 @@
       </c>
       <c r="G480" s="2"/>
     </row>
-    <row r="481" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="481" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A481" s="1" t="s">
         <v>1</v>
       </c>
@@ -12342,7 +12343,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="482" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="482" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A482" s="1" t="s">
         <v>1</v>
       </c>
@@ -12360,7 +12361,7 @@
       </c>
       <c r="G482" s="2"/>
     </row>
-    <row r="483" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="483" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A483" s="1" t="s">
         <v>1</v>
       </c>
@@ -12381,7 +12382,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="484" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="484" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A484" s="1" t="s">
         <v>1</v>
       </c>
@@ -12399,7 +12400,7 @@
       </c>
       <c r="G484" s="2"/>
     </row>
-    <row r="485" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="485" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A485" s="1" t="s">
         <v>1</v>
       </c>
@@ -12420,7 +12421,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="486" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="486" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A486" s="1" t="s">
         <v>1</v>
       </c>
@@ -12438,7 +12439,7 @@
       </c>
       <c r="G486" s="2"/>
     </row>
-    <row r="487" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="487" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A487" s="1" t="s">
         <v>1</v>
       </c>
@@ -12459,7 +12460,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="488" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="488" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A488" s="1" t="s">
         <v>1</v>
       </c>
@@ -12477,7 +12478,7 @@
       </c>
       <c r="G488" s="2"/>
     </row>
-    <row r="489" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="489" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A489" s="1" t="s">
         <v>1</v>
       </c>
@@ -12498,7 +12499,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="490" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="490" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A490" s="1" t="s">
         <v>1</v>
       </c>
@@ -12516,7 +12517,7 @@
       </c>
       <c r="G490" s="2"/>
     </row>
-    <row r="491" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="491" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A491" s="1" t="s">
         <v>1</v>
       </c>
@@ -12537,7 +12538,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="492" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="492" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A492" s="1" t="s">
         <v>1</v>
       </c>
@@ -12555,7 +12556,7 @@
       </c>
       <c r="G492" s="2"/>
     </row>
-    <row r="493" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="493" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A493" s="1" t="s">
         <v>1</v>
       </c>
@@ -12576,7 +12577,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="494" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="494" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A494" s="1" t="s">
         <v>1</v>
       </c>
@@ -12594,7 +12595,7 @@
       </c>
       <c r="G494" s="2"/>
     </row>
-    <row r="495" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="495" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A495" s="1" t="s">
         <v>1</v>
       </c>
@@ -12615,7 +12616,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="496" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="496" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A496" s="1" t="s">
         <v>1</v>
       </c>
@@ -12633,7 +12634,7 @@
       </c>
       <c r="G496" s="2"/>
     </row>
-    <row r="497" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="497" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A497" s="1" t="s">
         <v>1</v>
       </c>
@@ -12654,7 +12655,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="498" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="498" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A498" s="1" t="s">
         <v>1</v>
       </c>
@@ -12671,7 +12672,7 @@
         <v>2000</v>
       </c>
     </row>
-    <row r="499" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="499" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A499" s="1" t="s">
         <v>1</v>
       </c>
@@ -12691,7 +12692,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="500" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="500" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A500" s="1" t="s">
         <v>1</v>
       </c>
@@ -12708,7 +12709,7 @@
         <v>2100</v>
       </c>
     </row>
-    <row r="501" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="501" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A501" s="1" t="s">
         <v>1</v>
       </c>
@@ -12728,7 +12729,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="502" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="502" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A502" s="1" t="s">
         <v>1</v>
       </c>
@@ -12745,7 +12746,7 @@
         <v>2200</v>
       </c>
     </row>
-    <row r="503" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="503" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A503" s="1" t="s">
         <v>1</v>
       </c>
@@ -12765,7 +12766,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="504" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="504" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A504" s="1" t="s">
         <v>1</v>
       </c>
@@ -12788,7 +12789,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="505" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="505" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A505" s="1" t="s">
         <v>1</v>
       </c>
@@ -12814,7 +12815,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="506" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="506" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A506" s="1" t="s">
         <v>1</v>
       </c>
@@ -12837,7 +12838,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="507" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="507" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A507" s="1" t="s">
         <v>1</v>
       </c>
@@ -12863,7 +12864,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="508" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="508" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A508" s="1" t="s">
         <v>1</v>
       </c>
@@ -12886,7 +12887,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="509" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="509" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A509" s="1" t="s">
         <v>1</v>
       </c>
@@ -12912,7 +12913,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="510" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="510" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A510" s="1" t="s">
         <v>1</v>
       </c>
@@ -12935,7 +12936,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="511" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="511" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A511" s="1" t="s">
         <v>1</v>
       </c>
@@ -12961,7 +12962,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="512" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="512" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A512" s="1" t="s">
         <v>1</v>
       </c>
@@ -12984,7 +12985,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="513" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="513" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A513" s="1" t="s">
         <v>1</v>
       </c>
@@ -13010,7 +13011,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="514" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="514" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A514" s="1" t="s">
         <v>1</v>
       </c>
@@ -13033,7 +13034,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="515" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="515" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A515" s="1" t="s">
         <v>1</v>
       </c>
@@ -13059,7 +13060,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="516" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="516" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A516" s="1" t="s">
         <v>1</v>
       </c>
@@ -13082,7 +13083,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="517" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="517" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A517" s="1" t="s">
         <v>1</v>
       </c>
@@ -13108,7 +13109,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="518" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="518" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A518" s="1" t="s">
         <v>1</v>
       </c>
@@ -13131,7 +13132,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="519" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="519" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A519" s="1" t="s">
         <v>1</v>
       </c>
@@ -13157,7 +13158,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="520" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="520" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A520" s="1" t="s">
         <v>1</v>
       </c>
@@ -13180,7 +13181,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="521" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="521" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A521" s="1" t="s">
         <v>1</v>
       </c>
@@ -13206,7 +13207,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="522" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="522" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A522" s="1" t="s">
         <v>1</v>
       </c>
@@ -13229,7 +13230,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="523" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="523" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A523" s="1" t="s">
         <v>1</v>
       </c>
@@ -13255,7 +13256,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="524" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="524" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A524" s="1" t="s">
         <v>1</v>
       </c>
@@ -13278,7 +13279,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="525" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="525" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A525" s="1" t="s">
         <v>1</v>
       </c>
@@ -13304,7 +13305,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="526" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="526" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A526" s="1" t="s">
         <v>1</v>
       </c>
@@ -13327,7 +13328,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="527" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="527" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A527" s="1" t="s">
         <v>1</v>
       </c>
@@ -13353,7 +13354,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="528" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="528" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A528" s="1" t="s">
         <v>1</v>
       </c>
@@ -13376,7 +13377,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="529" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="529" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A529" s="1" t="s">
         <v>1</v>
       </c>
@@ -13402,7 +13403,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="530" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="530" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A530" s="1" t="s">
         <v>1</v>
       </c>
@@ -13425,7 +13426,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="531" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="531" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A531" s="1" t="s">
         <v>1</v>
       </c>
@@ -13451,7 +13452,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="532" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="532" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A532" s="1" t="s">
         <v>1</v>
       </c>
@@ -13474,7 +13475,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="533" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="533" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A533" s="1" t="s">
         <v>1</v>
       </c>
@@ -13500,7 +13501,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="534" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="534" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A534" s="1" t="s">
         <v>1</v>
       </c>
@@ -13523,7 +13524,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="535" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="535" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A535" s="1" t="s">
         <v>1</v>
       </c>
@@ -13549,7 +13550,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="536" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="536" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A536" s="1" t="s">
         <v>1</v>
       </c>
@@ -13572,7 +13573,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="537" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="537" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A537" s="1" t="s">
         <v>1</v>
       </c>
@@ -13598,7 +13599,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="538" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="538" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A538" s="1" t="s">
         <v>1</v>
       </c>
@@ -13621,7 +13622,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="539" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="539" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A539" s="1" t="s">
         <v>1</v>
       </c>
@@ -13647,7 +13648,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="540" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="540" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A540" s="1" t="s">
         <v>1</v>
       </c>
@@ -13670,7 +13671,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="541" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="541" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A541" s="1" t="s">
         <v>1</v>
       </c>
@@ -13696,7 +13697,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="542" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="542" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A542" s="1" t="s">
         <v>1</v>
       </c>
@@ -13719,7 +13720,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="543" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="543" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A543" s="1" t="s">
         <v>1</v>
       </c>
@@ -13745,7 +13746,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="544" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="544" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A544" s="1" t="s">
         <v>1</v>
       </c>
@@ -13768,7 +13769,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="545" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="545" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A545" s="1" t="s">
         <v>1</v>
       </c>
@@ -13794,7 +13795,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="546" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="546" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A546" s="1" t="s">
         <v>1</v>
       </c>
@@ -13817,7 +13818,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="547" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="547" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A547" s="1" t="s">
         <v>1</v>
       </c>
@@ -13843,7 +13844,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="548" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="548" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A548" s="1" t="s">
         <v>1</v>
       </c>
@@ -13866,7 +13867,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="549" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="549" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A549" s="1" t="s">
         <v>1</v>
       </c>
@@ -13892,7 +13893,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="550" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="550" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A550" s="1" t="s">
         <v>1</v>
       </c>
@@ -13915,7 +13916,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="551" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="551" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A551" s="1" t="s">
         <v>1</v>
       </c>
@@ -13941,7 +13942,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="552" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="552" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A552" s="1" t="s">
         <v>1</v>
       </c>
@@ -13964,7 +13965,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="553" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="553" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A553" s="1" t="s">
         <v>1</v>
       </c>
@@ -13990,7 +13991,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="554" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="554" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A554" s="1" t="s">
         <v>1</v>
       </c>
@@ -14013,7 +14014,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="555" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="555" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A555" s="1" t="s">
         <v>1</v>
       </c>
@@ -14039,7 +14040,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="556" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="556" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A556" s="1" t="s">
         <v>1</v>
       </c>
@@ -14062,7 +14063,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="557" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="557" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A557" s="1" t="s">
         <v>1</v>
       </c>
@@ -14088,7 +14089,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="558" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="558" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A558" s="1" t="s">
         <v>1</v>
       </c>
@@ -14112,7 +14113,7 @@
       </c>
       <c r="H558"/>
     </row>
-    <row r="559" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="559" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A559" s="1" t="s">
         <v>1</v>
       </c>
@@ -14139,7 +14140,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="560" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="560" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A560" s="1" t="s">
         <v>1</v>
       </c>
@@ -14163,7 +14164,7 @@
       </c>
       <c r="H560"/>
     </row>
-    <row r="561" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="561" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A561" s="1" t="s">
         <v>1</v>
       </c>
@@ -14190,7 +14191,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="562" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="562" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A562" s="1" t="s">
         <v>1</v>
       </c>
@@ -14214,7 +14215,7 @@
       </c>
       <c r="H562"/>
     </row>
-    <row r="563" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="563" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A563" s="1" t="s">
         <v>1</v>
       </c>
@@ -14241,7 +14242,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="564" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="564" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A564" s="1" t="s">
         <v>1</v>
       </c>
@@ -14265,7 +14266,7 @@
       </c>
       <c r="H564"/>
     </row>
-    <row r="565" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="565" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A565" s="1" t="s">
         <v>1</v>
       </c>
@@ -14292,7 +14293,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="566" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="566" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A566" s="1" t="s">
         <v>1</v>
       </c>
@@ -14316,7 +14317,7 @@
       </c>
       <c r="H566"/>
     </row>
-    <row r="567" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="567" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A567" s="1" t="s">
         <v>1</v>
       </c>
@@ -14343,7 +14344,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="568" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="568" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A568" s="1" t="s">
         <v>1</v>
       </c>
@@ -14367,7 +14368,7 @@
       </c>
       <c r="H568"/>
     </row>
-    <row r="569" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="569" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A569" s="1" t="s">
         <v>1</v>
       </c>
@@ -14394,7 +14395,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="570" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="570" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A570" s="1" t="s">
         <v>1</v>
       </c>
@@ -14418,7 +14419,7 @@
       </c>
       <c r="H570"/>
     </row>
-    <row r="571" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="571" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A571" s="1" t="s">
         <v>1</v>
       </c>
@@ -14445,7 +14446,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="572" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="572" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A572" s="1" t="s">
         <v>1</v>
       </c>
@@ -14469,7 +14470,7 @@
       </c>
       <c r="H572"/>
     </row>
-    <row r="573" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="573" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A573" s="1" t="s">
         <v>1</v>
       </c>
@@ -14496,7 +14497,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="574" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="574" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A574" s="1" t="s">
         <v>1</v>
       </c>
@@ -14520,7 +14521,7 @@
       </c>
       <c r="H574"/>
     </row>
-    <row r="575" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="575" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A575" s="1" t="s">
         <v>1</v>
       </c>
@@ -14547,7 +14548,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="576" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="576" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A576" s="1" t="s">
         <v>1</v>
       </c>
@@ -14571,7 +14572,7 @@
       </c>
       <c r="H576"/>
     </row>
-    <row r="577" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="577" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A577" s="1" t="s">
         <v>1</v>
       </c>
@@ -14598,7 +14599,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="578" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="578" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A578" s="1" t="s">
         <v>1</v>
       </c>
@@ -14622,7 +14623,7 @@
       </c>
       <c r="H578"/>
     </row>
-    <row r="579" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="579" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A579" s="1" t="s">
         <v>1</v>
       </c>
@@ -14649,7 +14650,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="580" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="580" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A580" s="1" t="s">
         <v>1</v>
       </c>
@@ -14673,7 +14674,7 @@
       </c>
       <c r="H580"/>
     </row>
-    <row r="581" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="581" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A581" s="1" t="s">
         <v>1</v>
       </c>
@@ -14700,7 +14701,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="582" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="582" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A582" s="1" t="s">
         <v>1</v>
       </c>
@@ -14724,7 +14725,7 @@
       </c>
       <c r="H582"/>
     </row>
-    <row r="583" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="583" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A583" s="1" t="s">
         <v>1</v>
       </c>
@@ -14751,7 +14752,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="584" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="584" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A584" s="1" t="s">
         <v>1</v>
       </c>
@@ -14775,7 +14776,7 @@
       </c>
       <c r="H584"/>
     </row>
-    <row r="585" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="585" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A585" s="1" t="s">
         <v>1</v>
       </c>
@@ -14802,7 +14803,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="586" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="586" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A586" s="1" t="s">
         <v>1</v>
       </c>
@@ -14826,7 +14827,7 @@
       </c>
       <c r="H586"/>
     </row>
-    <row r="587" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="587" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A587" s="1" t="s">
         <v>1</v>
       </c>
@@ -14853,7 +14854,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="588" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="588" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A588" s="1" t="s">
         <v>1</v>
       </c>
@@ -14877,7 +14878,7 @@
       </c>
       <c r="H588"/>
     </row>
-    <row r="589" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="589" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A589" s="1" t="s">
         <v>1</v>
       </c>
@@ -14904,7 +14905,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="590" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="590" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A590" s="1" t="s">
         <v>1</v>
       </c>
@@ -14928,7 +14929,7 @@
       </c>
       <c r="H590"/>
     </row>
-    <row r="591" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="591" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A591" s="1" t="s">
         <v>1</v>
       </c>
@@ -14955,7 +14956,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="592" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="592" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A592" s="1" t="s">
         <v>1</v>
       </c>
@@ -14979,7 +14980,7 @@
       </c>
       <c r="H592"/>
     </row>
-    <row r="593" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="593" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A593" s="1" t="s">
         <v>1</v>
       </c>
@@ -15006,7 +15007,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="594" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="594" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A594" s="1" t="s">
         <v>1</v>
       </c>
@@ -15030,7 +15031,7 @@
       </c>
       <c r="H594"/>
     </row>
-    <row r="595" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="595" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A595" s="1" t="s">
         <v>1</v>
       </c>
@@ -15057,7 +15058,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="596" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="596" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A596" s="1" t="s">
         <v>1</v>
       </c>
@@ -15081,7 +15082,7 @@
       </c>
       <c r="H596"/>
     </row>
-    <row r="597" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="597" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A597" s="1" t="s">
         <v>1</v>
       </c>
@@ -15108,7 +15109,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="598" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="598" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A598" s="1" t="s">
         <v>1</v>
       </c>
@@ -15132,7 +15133,7 @@
       </c>
       <c r="H598"/>
     </row>
-    <row r="599" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="599" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A599" s="1" t="s">
         <v>1</v>
       </c>
@@ -15159,7 +15160,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="600" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="600" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A600" s="1" t="s">
         <v>1</v>
       </c>
@@ -15183,7 +15184,7 @@
       </c>
       <c r="H600"/>
     </row>
-    <row r="601" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="601" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A601" s="1" t="s">
         <v>1</v>
       </c>
@@ -15210,7 +15211,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="602" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="602" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A602" s="1" t="s">
         <v>1</v>
       </c>
@@ -15234,7 +15235,7 @@
       </c>
       <c r="H602"/>
     </row>
-    <row r="603" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="603" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A603" s="1" t="s">
         <v>1</v>
       </c>
@@ -15261,7 +15262,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="604" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="604" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A604" s="1" t="s">
         <v>1</v>
       </c>
@@ -15285,7 +15286,7 @@
       </c>
       <c r="H604"/>
     </row>
-    <row r="605" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="605" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A605" s="1" t="s">
         <v>1</v>
       </c>
@@ -15312,7 +15313,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="606" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="606" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A606" s="1" t="s">
         <v>1</v>
       </c>
@@ -15336,7 +15337,7 @@
       </c>
       <c r="H606"/>
     </row>
-    <row r="607" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="607" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A607" s="1" t="s">
         <v>1</v>
       </c>
@@ -15363,7 +15364,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="608" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="608" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A608" s="1" t="s">
         <v>1</v>
       </c>
@@ -15387,7 +15388,7 @@
       </c>
       <c r="H608"/>
     </row>
-    <row r="609" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="609" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A609" s="1" t="s">
         <v>1</v>
       </c>
@@ -15414,7 +15415,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="610" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="610" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A610" s="1" t="s">
         <v>1</v>
       </c>
@@ -15438,7 +15439,7 @@
       </c>
       <c r="H610"/>
     </row>
-    <row r="611" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="611" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A611" s="1" t="s">
         <v>1</v>
       </c>
@@ -15465,7 +15466,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="612" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="612" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A612" s="1" t="s">
         <v>1</v>
       </c>
@@ -15489,7 +15490,7 @@
       </c>
       <c r="H612"/>
     </row>
-    <row r="613" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="613" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A613" s="1" t="s">
         <v>1</v>
       </c>
@@ -15516,7 +15517,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="614" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="614" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A614" s="1" t="s">
         <v>1</v>
       </c>
@@ -15540,7 +15541,7 @@
       </c>
       <c r="H614"/>
     </row>
-    <row r="615" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="615" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A615" s="1" t="s">
         <v>1</v>
       </c>
@@ -15567,7 +15568,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="616" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="616" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A616" s="1" t="s">
         <v>1</v>
       </c>
@@ -15591,7 +15592,7 @@
       </c>
       <c r="H616"/>
     </row>
-    <row r="617" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="617" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A617" s="1" t="s">
         <v>1</v>
       </c>
@@ -15618,7 +15619,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="618" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="618" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A618" s="1" t="s">
         <v>1</v>
       </c>
@@ -15642,7 +15643,7 @@
       </c>
       <c r="H618"/>
     </row>
-    <row r="619" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="619" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A619" s="1" t="s">
         <v>1</v>
       </c>
@@ -15669,7 +15670,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="620" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="620" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A620" s="1" t="s">
         <v>1</v>
       </c>
@@ -15693,7 +15694,7 @@
       </c>
       <c r="H620"/>
     </row>
-    <row r="621" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="621" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A621" s="1" t="s">
         <v>1</v>
       </c>
@@ -15720,7 +15721,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="622" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="622" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A622" s="1" t="s">
         <v>1</v>
       </c>
@@ -15744,7 +15745,7 @@
       </c>
       <c r="H622"/>
     </row>
-    <row r="623" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="623" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A623" s="1" t="s">
         <v>1</v>
       </c>
@@ -15771,7 +15772,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="624" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="624" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A624" s="1" t="s">
         <v>1</v>
       </c>
@@ -15795,7 +15796,7 @@
       </c>
       <c r="H624"/>
     </row>
-    <row r="625" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="625" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A625" s="1" t="s">
         <v>1</v>
       </c>
@@ -15822,7 +15823,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="626" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="626" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A626" s="1" t="s">
         <v>1</v>
       </c>
@@ -15846,7 +15847,7 @@
       </c>
       <c r="H626"/>
     </row>
-    <row r="627" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="627" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A627" s="1" t="s">
         <v>1</v>
       </c>
@@ -15873,7 +15874,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="628" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="628" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A628" s="1" t="s">
         <v>1</v>
       </c>
@@ -15897,7 +15898,7 @@
       </c>
       <c r="H628"/>
     </row>
-    <row r="629" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="629" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A629" s="1" t="s">
         <v>1</v>
       </c>
@@ -15924,7 +15925,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="630" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="630" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A630" s="1" t="s">
         <v>1</v>
       </c>
@@ -15948,7 +15949,7 @@
       </c>
       <c r="H630"/>
     </row>
-    <row r="631" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="631" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A631" s="1" t="s">
         <v>1</v>
       </c>
@@ -15975,7 +15976,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="632" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="632" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A632" s="1" t="s">
         <v>1</v>
       </c>
@@ -15999,7 +16000,7 @@
       </c>
       <c r="H632"/>
     </row>
-    <row r="633" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="633" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A633" s="1" t="s">
         <v>1</v>
       </c>
@@ -16026,7 +16027,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="634" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="634" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A634" s="1" t="s">
         <v>1</v>
       </c>
@@ -16050,7 +16051,7 @@
       </c>
       <c r="H634"/>
     </row>
-    <row r="635" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="635" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A635" s="1" t="s">
         <v>1</v>
       </c>
@@ -16077,7 +16078,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="636" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="636" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A636" s="1" t="s">
         <v>1</v>
       </c>
@@ -16101,7 +16102,7 @@
       </c>
       <c r="H636"/>
     </row>
-    <row r="637" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="637" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A637" s="1" t="s">
         <v>1</v>
       </c>
@@ -16128,7 +16129,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="638" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="638" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A638" s="1" t="s">
         <v>1</v>
       </c>
@@ -16152,7 +16153,7 @@
       </c>
       <c r="H638"/>
     </row>
-    <row r="639" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="639" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A639" s="1" t="s">
         <v>1</v>
       </c>
@@ -16179,7 +16180,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="640" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="640" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A640" s="1" t="s">
         <v>1</v>
       </c>
@@ -16203,7 +16204,7 @@
       </c>
       <c r="H640"/>
     </row>
-    <row r="641" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="641" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A641" s="1" t="s">
         <v>1</v>
       </c>
@@ -16230,7 +16231,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="642" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="642" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A642" s="1" t="s">
         <v>1</v>
       </c>
@@ -16254,7 +16255,7 @@
       </c>
       <c r="H642"/>
     </row>
-    <row r="643" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="643" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A643" s="1" t="s">
         <v>1</v>
       </c>
@@ -16281,7 +16282,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="644" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="644" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A644" s="1" t="s">
         <v>1</v>
       </c>
@@ -16305,7 +16306,7 @@
       </c>
       <c r="H644"/>
     </row>
-    <row r="645" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="645" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A645" s="1" t="s">
         <v>1</v>
       </c>
@@ -16332,7 +16333,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="646" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="646" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A646" s="1" t="s">
         <v>1</v>
       </c>
@@ -16356,7 +16357,7 @@
       </c>
       <c r="H646"/>
     </row>
-    <row r="647" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="647" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A647" s="1" t="s">
         <v>1</v>
       </c>
@@ -16383,7 +16384,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="648" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="648" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A648" s="1" t="s">
         <v>1</v>
       </c>
@@ -16407,7 +16408,7 @@
       </c>
       <c r="H648"/>
     </row>
-    <row r="649" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="649" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A649" s="1" t="s">
         <v>1</v>
       </c>
@@ -16434,7 +16435,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="650" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="650" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A650" s="1" t="s">
         <v>1</v>
       </c>
@@ -16458,7 +16459,7 @@
       </c>
       <c r="H650"/>
     </row>
-    <row r="651" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="651" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A651" s="1" t="s">
         <v>1</v>
       </c>
@@ -16485,7 +16486,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="652" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="652" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A652" s="1" t="s">
         <v>1</v>
       </c>
@@ -16509,7 +16510,7 @@
       </c>
       <c r="H652"/>
     </row>
-    <row r="653" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="653" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A653" s="1" t="s">
         <v>1</v>
       </c>
@@ -16536,7 +16537,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="654" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="654" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A654" s="1" t="s">
         <v>1</v>
       </c>
@@ -16560,7 +16561,7 @@
       </c>
       <c r="H654"/>
     </row>
-    <row r="655" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="655" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A655" s="1" t="s">
         <v>1</v>
       </c>
@@ -16587,7 +16588,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="656" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="656" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A656" s="1" t="s">
         <v>1</v>
       </c>
@@ -16610,7 +16611,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="657" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="657" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A657" s="1" t="s">
         <v>1</v>
       </c>
@@ -16636,7 +16637,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="658" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="658" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A658" s="1" t="s">
         <v>1</v>
       </c>
@@ -16660,7 +16661,7 @@
       </c>
       <c r="H658"/>
     </row>
-    <row r="659" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="659" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A659" s="1" t="s">
         <v>1</v>
       </c>
@@ -16687,7 +16688,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="660" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="660" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A660" s="1" t="s">
         <v>1</v>
       </c>
@@ -16711,7 +16712,7 @@
       </c>
       <c r="H660"/>
     </row>
-    <row r="661" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="661" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A661" s="1" t="s">
         <v>1</v>
       </c>
@@ -16738,7 +16739,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="662" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="662" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A662" s="1" t="s">
         <v>1</v>
       </c>
@@ -16762,7 +16763,7 @@
       </c>
       <c r="H662"/>
     </row>
-    <row r="663" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="663" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A663" s="1" t="s">
         <v>1</v>
       </c>
@@ -16789,7 +16790,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="664" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="664" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A664" s="1" t="s">
         <v>1</v>
       </c>
@@ -16813,7 +16814,7 @@
       </c>
       <c r="H664"/>
     </row>
-    <row r="665" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="665" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A665" s="1" t="s">
         <v>1</v>
       </c>
@@ -16840,7 +16841,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="666" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="666" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A666" s="1" t="s">
         <v>1</v>
       </c>
@@ -16864,7 +16865,7 @@
       </c>
       <c r="H666"/>
     </row>
-    <row r="667" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="667" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A667" s="1" t="s">
         <v>1</v>
       </c>
@@ -16891,7 +16892,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="668" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="668" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A668" s="1" t="s">
         <v>1</v>
       </c>
@@ -16915,7 +16916,7 @@
       </c>
       <c r="H668"/>
     </row>
-    <row r="669" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="669" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A669" s="1" t="s">
         <v>1</v>
       </c>
@@ -16942,7 +16943,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="670" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="670" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A670" s="1" t="s">
         <v>1</v>
       </c>
@@ -16966,7 +16967,7 @@
       </c>
       <c r="H670"/>
     </row>
-    <row r="671" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="671" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A671" s="1" t="s">
         <v>1</v>
       </c>
@@ -16993,7 +16994,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="672" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="672" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A672" s="1" t="s">
         <v>1</v>
       </c>
@@ -17017,7 +17018,7 @@
       </c>
       <c r="H672"/>
     </row>
-    <row r="673" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="673" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A673" s="1" t="s">
         <v>1</v>
       </c>
@@ -17044,7 +17045,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="674" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="674" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A674" s="1" t="s">
         <v>1</v>
       </c>
@@ -17068,7 +17069,7 @@
       </c>
       <c r="H674"/>
     </row>
-    <row r="675" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="675" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A675" s="1" t="s">
         <v>1</v>
       </c>
@@ -17095,7 +17096,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="676" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="676" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A676" s="1" t="s">
         <v>1</v>
       </c>
@@ -17118,7 +17119,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="677" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="677" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A677" s="1" t="s">
         <v>1</v>
       </c>
@@ -17144,7 +17145,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="678" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="678" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A678" s="1" t="s">
         <v>1</v>
       </c>
@@ -17168,7 +17169,7 @@
       </c>
       <c r="H678"/>
     </row>
-    <row r="679" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="679" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A679" s="1" t="s">
         <v>1</v>
       </c>
@@ -17195,7 +17196,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="680" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="680" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A680" s="1" t="s">
         <v>1</v>
       </c>
@@ -17219,7 +17220,7 @@
       </c>
       <c r="H680"/>
     </row>
-    <row r="681" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="681" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A681" s="1" t="s">
         <v>1</v>
       </c>
@@ -17246,7 +17247,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="682" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="682" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A682" s="1" t="s">
         <v>1</v>
       </c>
@@ -17270,7 +17271,7 @@
       </c>
       <c r="H682"/>
     </row>
-    <row r="683" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="683" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A683" s="1" t="s">
         <v>1</v>
       </c>
@@ -17297,7 +17298,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="684" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="684" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A684" s="1" t="s">
         <v>1</v>
       </c>
@@ -17321,7 +17322,7 @@
       </c>
       <c r="H684"/>
     </row>
-    <row r="685" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="685" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A685" s="1" t="s">
         <v>1</v>
       </c>
@@ -17348,7 +17349,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="686" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="686" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A686" s="1" t="s">
         <v>1</v>
       </c>
@@ -17372,7 +17373,7 @@
       </c>
       <c r="H686"/>
     </row>
-    <row r="687" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="687" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A687" s="1" t="s">
         <v>1</v>
       </c>
@@ -17399,7 +17400,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="688" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="688" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A688" s="1" t="s">
         <v>1</v>
       </c>
@@ -17423,7 +17424,7 @@
       </c>
       <c r="H688"/>
     </row>
-    <row r="689" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="689" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A689" s="1" t="s">
         <v>1</v>
       </c>
@@ -17450,7 +17451,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="690" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="690" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A690" s="1" t="s">
         <v>1</v>
       </c>
@@ -17474,7 +17475,7 @@
       </c>
       <c r="H690"/>
     </row>
-    <row r="691" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="691" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A691" s="1" t="s">
         <v>1</v>
       </c>
@@ -17501,7 +17502,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="692" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="692" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A692" s="1" t="s">
         <v>1</v>
       </c>
@@ -17525,7 +17526,7 @@
       </c>
       <c r="H692"/>
     </row>
-    <row r="693" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="693" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A693" s="1" t="s">
         <v>1</v>
       </c>
@@ -17552,7 +17553,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="694" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="694" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A694" s="1" t="s">
         <v>1</v>
       </c>
@@ -17575,7 +17576,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="695" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="695" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A695" s="1" t="s">
         <v>1</v>
       </c>
@@ -17601,7 +17602,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="696" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="696" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A696" s="1" t="s">
         <v>1</v>
       </c>
@@ -17625,7 +17626,7 @@
       </c>
       <c r="H696"/>
     </row>
-    <row r="697" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="697" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A697" s="1" t="s">
         <v>1</v>
       </c>
@@ -17652,7 +17653,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="698" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="698" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A698" s="1" t="s">
         <v>1</v>
       </c>
@@ -17676,7 +17677,7 @@
       </c>
       <c r="H698"/>
     </row>
-    <row r="699" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="699" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A699" s="1" t="s">
         <v>1</v>
       </c>
@@ -17703,7 +17704,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="700" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="700" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A700" s="1" t="s">
         <v>1</v>
       </c>
@@ -17727,7 +17728,7 @@
       </c>
       <c r="H700"/>
     </row>
-    <row r="701" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="701" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A701" s="1" t="s">
         <v>1</v>
       </c>
@@ -17754,7 +17755,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="702" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="702" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A702" s="1" t="s">
         <v>1</v>
       </c>
@@ -17778,7 +17779,7 @@
       </c>
       <c r="H702"/>
     </row>
-    <row r="703" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="703" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A703" s="1" t="s">
         <v>1</v>
       </c>
@@ -17805,7 +17806,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="704" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="704" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A704" s="1" t="s">
         <v>1</v>
       </c>
@@ -17829,7 +17830,7 @@
       </c>
       <c r="H704"/>
     </row>
-    <row r="705" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="705" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A705" s="1" t="s">
         <v>1</v>
       </c>
@@ -17856,7 +17857,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="706" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="706" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A706" s="1" t="s">
         <v>1</v>
       </c>
@@ -17880,7 +17881,7 @@
       </c>
       <c r="H706"/>
     </row>
-    <row r="707" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="707" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A707" s="1" t="s">
         <v>1</v>
       </c>
@@ -17907,7 +17908,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="708" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="708" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A708" s="1" t="s">
         <v>1</v>
       </c>
@@ -17931,7 +17932,7 @@
       </c>
       <c r="H708"/>
     </row>
-    <row r="709" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="709" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A709" s="1" t="s">
         <v>1</v>
       </c>
@@ -17958,7 +17959,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="710" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="710" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A710" s="1" t="s">
         <v>1</v>
       </c>
@@ -17981,7 +17982,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="711" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="711" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A711" s="1" t="s">
         <v>1</v>
       </c>
@@ -18007,7 +18008,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="712" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="712" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A712" s="1" t="s">
         <v>1</v>
       </c>
@@ -18030,7 +18031,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="713" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="713" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A713" s="1" t="s">
         <v>1</v>
       </c>
@@ -18056,7 +18057,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="714" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="714" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A714" s="1" t="s">
         <v>1</v>
       </c>
@@ -18079,7 +18080,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="715" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="715" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A715" s="1" t="s">
         <v>1</v>
       </c>
@@ -18105,7 +18106,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="716" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="716" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A716" s="1" t="s">
         <v>1</v>
       </c>
@@ -18128,7 +18129,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="717" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="717" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A717" s="1" t="s">
         <v>1</v>
       </c>
@@ -18154,7 +18155,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="718" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="718" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A718" s="1" t="s">
         <v>1</v>
       </c>
@@ -18178,7 +18179,7 @@
       </c>
       <c r="H718"/>
     </row>
-    <row r="719" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="719" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A719" s="1" t="s">
         <v>1</v>
       </c>
@@ -18205,7 +18206,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="720" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="720" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A720" s="1" t="s">
         <v>1</v>
       </c>
@@ -18229,7 +18230,7 @@
       </c>
       <c r="H720"/>
     </row>
-    <row r="721" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="721" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A721" s="1" t="s">
         <v>1</v>
       </c>
@@ -18256,7 +18257,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="722" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="722" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A722" s="1" t="s">
         <v>1</v>
       </c>
@@ -18280,7 +18281,7 @@
       </c>
       <c r="H722"/>
     </row>
-    <row r="723" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="723" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A723" s="1" t="s">
         <v>1</v>
       </c>
@@ -18307,7 +18308,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="724" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="724" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A724" s="1" t="s">
         <v>1</v>
       </c>
@@ -18331,7 +18332,7 @@
       </c>
       <c r="H724"/>
     </row>
-    <row r="725" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="725" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A725" s="1" t="s">
         <v>1</v>
       </c>
@@ -18358,7 +18359,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="726" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="726" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A726" s="1" t="s">
         <v>1</v>
       </c>
@@ -18382,7 +18383,7 @@
       </c>
       <c r="H726"/>
     </row>
-    <row r="727" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="727" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A727" s="1" t="s">
         <v>1</v>
       </c>
@@ -18409,7 +18410,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="728" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="728" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A728" s="1" t="s">
         <v>1</v>
       </c>
@@ -18433,7 +18434,7 @@
       </c>
       <c r="H728"/>
     </row>
-    <row r="729" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="729" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A729" s="1" t="s">
         <v>1</v>
       </c>
@@ -18460,7 +18461,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="730" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="730" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A730" s="1" t="s">
         <v>1</v>
       </c>
@@ -18483,7 +18484,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="731" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="731" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A731" s="1" t="s">
         <v>1</v>
       </c>
@@ -18509,7 +18510,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="732" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="732" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A732" s="1" t="s">
         <v>1</v>
       </c>
@@ -18532,7 +18533,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="733" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="733" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A733" s="1" t="s">
         <v>1</v>
       </c>
@@ -18558,7 +18559,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="734" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="734" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A734" s="1" t="s">
         <v>1</v>
       </c>
@@ -18581,7 +18582,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="735" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="735" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A735" s="1" t="s">
         <v>1</v>
       </c>
@@ -18607,7 +18608,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="736" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="736" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A736" s="1" t="s">
         <v>1</v>
       </c>
@@ -18630,7 +18631,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="737" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="737" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A737" s="1" t="s">
         <v>1</v>
       </c>
@@ -18656,7 +18657,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="738" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="738" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A738" s="1" t="s">
         <v>1</v>
       </c>
@@ -18679,7 +18680,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="739" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="739" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A739" s="1" t="s">
         <v>1</v>
       </c>
@@ -18705,7 +18706,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="740" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="740" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A740" s="1" t="s">
         <v>1</v>
       </c>
@@ -18729,7 +18730,7 @@
       </c>
       <c r="H740"/>
     </row>
-    <row r="741" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="741" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A741" s="1" t="s">
         <v>1</v>
       </c>
@@ -18756,7 +18757,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="742" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="742" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A742" s="1" t="s">
         <v>1</v>
       </c>
@@ -18779,7 +18780,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="743" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="743" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A743" s="1" t="s">
         <v>1</v>
       </c>
@@ -18805,7 +18806,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="744" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="744" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A744" s="1" t="s">
         <v>1</v>
       </c>
@@ -18828,7 +18829,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="745" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="745" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A745" s="1" t="s">
         <v>1</v>
       </c>
@@ -18854,7 +18855,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="746" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="746" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A746" s="1" t="s">
         <v>1</v>
       </c>
@@ -18877,7 +18878,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="747" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="747" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A747" s="1" t="s">
         <v>1</v>
       </c>
@@ -18903,7 +18904,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="748" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="748" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A748" s="1" t="s">
         <v>1</v>
       </c>
@@ -18926,7 +18927,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="749" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="749" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A749" s="1" t="s">
         <v>1</v>
       </c>
@@ -18952,7 +18953,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="750" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="750" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A750" s="1" t="s">
         <v>1</v>
       </c>
@@ -18975,7 +18976,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="751" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="751" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A751" s="1" t="s">
         <v>1</v>
       </c>
@@ -19001,7 +19002,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="752" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="752" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A752" s="1" t="s">
         <v>1</v>
       </c>
@@ -19024,7 +19025,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="753" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="753" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A753" s="1" t="s">
         <v>1</v>
       </c>
@@ -19050,7 +19051,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="754" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="754" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A754" s="1" t="s">
         <v>1</v>
       </c>
@@ -19073,7 +19074,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="755" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="755" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A755" s="1" t="s">
         <v>1</v>
       </c>
@@ -19099,7 +19100,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="756" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="756" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A756" s="1" t="s">
         <v>1</v>
       </c>
@@ -19122,7 +19123,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="757" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="757" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A757" s="1" t="s">
         <v>1</v>
       </c>
@@ -19148,7 +19149,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="758" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="758" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A758" s="1" t="s">
         <v>1</v>
       </c>
@@ -19171,7 +19172,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="759" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="759" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A759" s="1" t="s">
         <v>1</v>
       </c>
@@ -19197,7 +19198,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="760" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="760" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A760" s="1" t="s">
         <v>1</v>
       </c>
@@ -19221,7 +19222,7 @@
       </c>
       <c r="H760"/>
     </row>
-    <row r="761" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="761" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A761" s="1" t="s">
         <v>1</v>
       </c>
@@ -19248,7 +19249,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="762" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="762" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A762" s="1" t="s">
         <v>1</v>
       </c>
@@ -19272,7 +19273,7 @@
       </c>
       <c r="H762"/>
     </row>
-    <row r="763" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="763" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A763" s="1" t="s">
         <v>1</v>
       </c>
@@ -19299,7 +19300,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="764" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="764" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A764" s="1" t="s">
         <v>1</v>
       </c>
@@ -19323,7 +19324,7 @@
       </c>
       <c r="H764"/>
     </row>
-    <row r="765" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="765" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A765" s="1" t="s">
         <v>1</v>
       </c>
@@ -19350,7 +19351,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="766" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="766" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A766" s="1" t="s">
         <v>1</v>
       </c>
@@ -19374,7 +19375,7 @@
       </c>
       <c r="H766"/>
     </row>
-    <row r="767" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="767" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A767" s="1" t="s">
         <v>1</v>
       </c>
@@ -19401,7 +19402,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="768" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="768" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A768" s="1" t="s">
         <v>1</v>
       </c>
@@ -19425,7 +19426,7 @@
       </c>
       <c r="H768"/>
     </row>
-    <row r="769" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="769" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A769" s="1" t="s">
         <v>1</v>
       </c>
@@ -19452,7 +19453,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="770" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="770" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A770" s="1" t="s">
         <v>1</v>
       </c>
@@ -19476,7 +19477,7 @@
       </c>
       <c r="H770"/>
     </row>
-    <row r="771" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="771" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A771" s="1" t="s">
         <v>1</v>
       </c>
@@ -19503,7 +19504,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="772" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="772" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A772" s="1" t="s">
         <v>1</v>
       </c>
@@ -19527,7 +19528,7 @@
       </c>
       <c r="H772"/>
     </row>
-    <row r="773" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="773" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A773" s="1" t="s">
         <v>1</v>
       </c>
@@ -19554,7 +19555,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="774" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="774" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A774" s="1" t="s">
         <v>1</v>
       </c>
@@ -19578,7 +19579,7 @@
       </c>
       <c r="H774"/>
     </row>
-    <row r="775" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="775" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A775" s="1" t="s">
         <v>1</v>
       </c>
@@ -19605,7 +19606,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="776" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="776" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A776" s="1" t="s">
         <v>1</v>
       </c>
@@ -19628,7 +19629,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="777" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="777" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A777" s="1" t="s">
         <v>1</v>
       </c>
@@ -19654,7 +19655,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="778" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="778" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A778" s="1" t="s">
         <v>1</v>
       </c>
@@ -19677,7 +19678,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="779" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="779" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A779" s="1" t="s">
         <v>1</v>
       </c>
@@ -19703,7 +19704,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="780" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="780" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A780" s="1" t="s">
         <v>1</v>
       </c>
@@ -19726,7 +19727,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="781" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="781" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A781" s="1" t="s">
         <v>1</v>
       </c>
@@ -19752,7 +19753,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="782" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="782" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A782" s="1" t="s">
         <v>1</v>
       </c>
@@ -19775,7 +19776,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="783" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="783" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A783" s="1" t="s">
         <v>1</v>
       </c>
@@ -19801,7 +19802,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="784" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="784" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A784" s="1" t="s">
         <v>1</v>
       </c>
@@ -19824,7 +19825,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="785" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="785" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A785" s="1" t="s">
         <v>1</v>
       </c>
@@ -19850,7 +19851,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="786" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="786" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A786" s="1" t="s">
         <v>1</v>
       </c>
@@ -19873,7 +19874,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="787" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="787" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A787" s="1" t="s">
         <v>1</v>
       </c>
@@ -19899,7 +19900,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="788" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="788" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A788" s="1" t="s">
         <v>1</v>
       </c>
@@ -19922,7 +19923,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="789" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="789" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A789" s="1" t="s">
         <v>1</v>
       </c>
@@ -19948,7 +19949,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="790" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="790" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A790" s="1" t="s">
         <v>1</v>
       </c>
@@ -19971,7 +19972,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="791" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="791" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A791" s="1" t="s">
         <v>1</v>
       </c>
@@ -19997,7 +19998,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="792" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="792" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A792" s="1" t="s">
         <v>1</v>
       </c>
@@ -20020,7 +20021,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="793" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="793" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A793" s="1" t="s">
         <v>1</v>
       </c>
@@ -20046,7 +20047,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="794" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="794" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A794" s="1" t="s">
         <v>1</v>
       </c>
@@ -20069,7 +20070,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="795" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="795" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A795" s="1" t="s">
         <v>1</v>
       </c>
@@ -20095,7 +20096,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="796" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="796" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A796" s="1" t="s">
         <v>1</v>
       </c>
@@ -20118,7 +20119,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="797" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="797" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A797" s="1" t="s">
         <v>1</v>
       </c>
@@ -20144,7 +20145,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="798" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="798" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A798" s="1" t="s">
         <v>1</v>
       </c>
@@ -20167,7 +20168,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="799" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="799" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A799" s="1" t="s">
         <v>1</v>
       </c>
@@ -20193,7 +20194,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="800" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="800" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A800" s="1" t="s">
         <v>1</v>
       </c>
@@ -20216,7 +20217,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="801" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="801" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A801" s="1" t="s">
         <v>1</v>
       </c>
@@ -20242,7 +20243,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="802" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="802" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A802" s="1" t="s">
         <v>1</v>
       </c>
@@ -20265,7 +20266,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="803" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="803" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A803" s="1" t="s">
         <v>1</v>
       </c>
@@ -20291,7 +20292,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="804" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="804" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A804" s="1" t="s">
         <v>1</v>
       </c>
@@ -20314,7 +20315,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="805" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="805" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A805" s="1" t="s">
         <v>1</v>
       </c>
@@ -20340,7 +20341,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="806" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="806" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A806" s="1" t="s">
         <v>1</v>
       </c>
@@ -20363,7 +20364,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="807" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="807" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A807" s="1" t="s">
         <v>1</v>
       </c>
@@ -20389,7 +20390,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="808" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="808" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A808" s="1" t="s">
         <v>1</v>
       </c>
@@ -20412,7 +20413,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="809" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="809" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A809" s="1" t="s">
         <v>1</v>
       </c>
@@ -20438,7 +20439,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="810" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="810" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A810" s="1" t="s">
         <v>1</v>
       </c>
@@ -20461,7 +20462,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="811" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="811" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A811" s="1" t="s">
         <v>1</v>
       </c>
@@ -20487,7 +20488,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="812" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="812" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A812" s="1" t="s">
         <v>1</v>
       </c>
@@ -20510,7 +20511,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="813" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="813" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A813" s="1" t="s">
         <v>1</v>
       </c>
@@ -20536,7 +20537,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="814" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="814" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A814" s="1" t="s">
         <v>1</v>
       </c>
@@ -20559,7 +20560,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="815" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="815" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A815" s="1" t="s">
         <v>1</v>
       </c>
@@ -20585,7 +20586,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="816" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="816" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A816" s="1" t="s">
         <v>1</v>
       </c>
@@ -20608,7 +20609,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="817" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="817" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A817" s="1" t="s">
         <v>1</v>
       </c>
@@ -20634,7 +20635,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="818" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="818" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A818" s="1" t="s">
         <v>1</v>
       </c>
@@ -20657,7 +20658,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="819" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="819" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A819" s="1" t="s">
         <v>1</v>
       </c>
@@ -20683,7 +20684,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="820" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="820" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A820" s="1" t="s">
         <v>1</v>
       </c>
@@ -20706,7 +20707,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="821" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="821" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A821" s="1" t="s">
         <v>1</v>
       </c>
@@ -20732,7 +20733,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="822" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="822" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A822" s="1" t="s">
         <v>1</v>
       </c>
@@ -20755,7 +20756,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="823" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="823" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A823" s="1" t="s">
         <v>1</v>
       </c>
@@ -20781,7 +20782,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="824" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="824" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A824" s="1" t="s">
         <v>1</v>
       </c>
@@ -20804,7 +20805,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="825" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="825" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A825" s="1" t="s">
         <v>1</v>
       </c>
@@ -20830,7 +20831,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="826" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="826" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A826" s="1" t="s">
         <v>1</v>
       </c>
@@ -20853,7 +20854,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="827" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="827" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A827" s="1" t="s">
         <v>1</v>
       </c>
@@ -20879,7 +20880,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="828" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="828" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A828" s="1" t="s">
         <v>1</v>
       </c>
@@ -20902,7 +20903,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="829" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="829" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A829" s="1" t="s">
         <v>1</v>
       </c>
@@ -20928,7 +20929,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="830" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="830" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A830" s="1" t="s">
         <v>1</v>
       </c>
@@ -20951,7 +20952,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="831" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="831" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A831" s="1" t="s">
         <v>1</v>
       </c>
@@ -20977,7 +20978,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="832" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="832" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A832" s="1" t="s">
         <v>1</v>
       </c>
@@ -20994,7 +20995,7 @@
         <v>800</v>
       </c>
     </row>
-    <row r="833" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="833" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A833" s="1" t="s">
         <v>1</v>
       </c>
@@ -21014,7 +21015,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="834" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="834" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A834" s="1" t="s">
         <v>1</v>
       </c>
@@ -21031,7 +21032,7 @@
         <v>900</v>
       </c>
     </row>
-    <row r="835" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="835" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A835" s="1" t="s">
         <v>1</v>
       </c>
@@ -21051,7 +21052,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="836" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="836" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A836" s="1" t="s">
         <v>1</v>
       </c>
@@ -21068,7 +21069,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="837" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="837" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A837" s="1" t="s">
         <v>1</v>
       </c>
@@ -21088,7 +21089,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="838" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="838" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A838" s="1" t="s">
         <v>1</v>
       </c>
@@ -21105,7 +21106,7 @@
         <v>1100</v>
       </c>
     </row>
-    <row r="839" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="839" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A839" s="1" t="s">
         <v>1</v>
       </c>
@@ -21125,7 +21126,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="840" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="840" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A840" s="1" t="s">
         <v>1</v>
       </c>
@@ -21142,7 +21143,7 @@
         <v>1200</v>
       </c>
     </row>
-    <row r="841" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="841" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A841" s="1" t="s">
         <v>1</v>
       </c>
@@ -21162,7 +21163,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="842" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="842" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A842" s="1" t="s">
         <v>1</v>
       </c>
@@ -21179,7 +21180,7 @@
         <v>1300</v>
       </c>
     </row>
-    <row r="843" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="843" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A843" s="1" t="s">
         <v>1</v>
       </c>
@@ -21199,7 +21200,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="844" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="844" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A844" s="1" t="s">
         <v>1</v>
       </c>
@@ -21216,7 +21217,7 @@
         <v>1400</v>
       </c>
     </row>
-    <row r="845" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="845" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A845" s="1" t="s">
         <v>1</v>
       </c>
@@ -21236,7 +21237,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="846" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="846" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A846" s="1" t="s">
         <v>1</v>
       </c>
@@ -21253,7 +21254,7 @@
         <v>1500</v>
       </c>
     </row>
-    <row r="847" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="847" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A847" s="1" t="s">
         <v>1</v>
       </c>
@@ -21273,7 +21274,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="848" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="848" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A848" s="1" t="s">
         <v>1</v>
       </c>
@@ -21290,7 +21291,7 @@
         <v>1600</v>
       </c>
     </row>
-    <row r="849" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="849" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A849" s="1" t="s">
         <v>1</v>
       </c>
@@ -21310,7 +21311,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="850" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="850" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A850" s="1" t="s">
         <v>1</v>
       </c>
@@ -21327,7 +21328,7 @@
         <v>1700</v>
       </c>
     </row>
-    <row r="851" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="851" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A851" s="1" t="s">
         <v>1</v>
       </c>
@@ -21347,7 +21348,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="852" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="852" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A852" s="1" t="s">
         <v>1</v>
       </c>
@@ -21364,7 +21365,7 @@
         <v>1800</v>
       </c>
     </row>
-    <row r="853" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="853" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A853" s="1" t="s">
         <v>1</v>
       </c>
@@ -21384,7 +21385,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="854" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="854" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A854" s="1" t="s">
         <v>1</v>
       </c>
@@ -21401,7 +21402,7 @@
         <v>1900</v>
       </c>
     </row>
-    <row r="855" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="855" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A855" s="1" t="s">
         <v>1</v>
       </c>
@@ -21421,7 +21422,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="856" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="856" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A856" s="1" t="s">
         <v>1</v>
       </c>
@@ -21438,7 +21439,7 @@
         <v>2000</v>
       </c>
     </row>
-    <row r="857" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="857" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A857" s="1" t="s">
         <v>1</v>
       </c>
@@ -21458,7 +21459,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="858" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="858" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A858" s="1" t="s">
         <v>1</v>
       </c>
@@ -21475,7 +21476,7 @@
         <v>2100</v>
       </c>
     </row>
-    <row r="859" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="859" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A859" s="1" t="s">
         <v>1</v>
       </c>
@@ -21495,7 +21496,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="860" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="860" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A860" s="1" t="s">
         <v>1</v>
       </c>
@@ -21512,7 +21513,7 @@
         <v>2200</v>
       </c>
     </row>
-    <row r="861" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="861" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A861" s="1" t="s">
         <v>1</v>
       </c>
@@ -21532,7 +21533,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="862" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="862" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A862" s="1" t="s">
         <v>1</v>
       </c>
@@ -21549,7 +21550,7 @@
         <v>800</v>
       </c>
     </row>
-    <row r="863" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="863" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A863" s="1" t="s">
         <v>1</v>
       </c>
@@ -21569,7 +21570,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="864" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="864" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A864" s="1" t="s">
         <v>1</v>
       </c>
@@ -21586,7 +21587,7 @@
         <v>900</v>
       </c>
     </row>
-    <row r="865" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="865" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A865" s="1" t="s">
         <v>1</v>
       </c>
@@ -21606,7 +21607,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="866" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="866" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A866" s="1" t="s">
         <v>1</v>
       </c>
@@ -21623,7 +21624,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="867" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="867" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A867" s="1" t="s">
         <v>1</v>
       </c>
@@ -21643,7 +21644,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="868" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="868" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A868" s="1" t="s">
         <v>1</v>
       </c>
@@ -21660,7 +21661,7 @@
         <v>1100</v>
       </c>
     </row>
-    <row r="869" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="869" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A869" s="1" t="s">
         <v>1</v>
       </c>
@@ -21680,7 +21681,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="870" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="870" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A870" s="1" t="s">
         <v>1</v>
       </c>
@@ -21697,7 +21698,7 @@
         <v>1200</v>
       </c>
     </row>
-    <row r="871" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="871" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A871" s="1" t="s">
         <v>1</v>
       </c>
@@ -21717,7 +21718,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="872" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="872" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A872" s="1" t="s">
         <v>1</v>
       </c>
@@ -21734,7 +21735,7 @@
         <v>1300</v>
       </c>
     </row>
-    <row r="873" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="873" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A873" s="1" t="s">
         <v>1</v>
       </c>
@@ -21754,7 +21755,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="874" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="874" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A874" s="1" t="s">
         <v>1</v>
       </c>
@@ -21771,7 +21772,7 @@
         <v>1400</v>
       </c>
     </row>
-    <row r="875" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="875" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A875" s="1" t="s">
         <v>1</v>
       </c>
@@ -21791,7 +21792,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="876" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="876" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A876" s="1" t="s">
         <v>1</v>
       </c>
@@ -21808,7 +21809,7 @@
         <v>1500</v>
       </c>
     </row>
-    <row r="877" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="877" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A877" s="1" t="s">
         <v>1</v>
       </c>
@@ -21828,7 +21829,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="878" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="878" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A878" s="1" t="s">
         <v>1</v>
       </c>
@@ -21845,7 +21846,7 @@
         <v>1600</v>
       </c>
     </row>
-    <row r="879" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="879" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A879" s="1" t="s">
         <v>1</v>
       </c>
@@ -21865,7 +21866,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="880" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="880" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A880" s="1" t="s">
         <v>1</v>
       </c>
@@ -21882,7 +21883,7 @@
         <v>1700</v>
       </c>
     </row>
-    <row r="881" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="881" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A881" s="1" t="s">
         <v>1</v>
       </c>
@@ -21902,7 +21903,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="882" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="882" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A882" s="1" t="s">
         <v>1</v>
       </c>
@@ -21919,7 +21920,7 @@
         <v>1800</v>
       </c>
     </row>
-    <row r="883" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="883" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A883" s="1" t="s">
         <v>1</v>
       </c>
@@ -21939,7 +21940,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="884" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="884" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A884" s="1" t="s">
         <v>1</v>
       </c>
@@ -21956,7 +21957,7 @@
         <v>1900</v>
       </c>
     </row>
-    <row r="885" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="885" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A885" s="1" t="s">
         <v>1</v>
       </c>
@@ -21976,7 +21977,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="886" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="886" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A886" s="1" t="s">
         <v>1</v>
       </c>
@@ -21993,7 +21994,7 @@
         <v>2000</v>
       </c>
     </row>
-    <row r="887" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="887" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A887" s="1" t="s">
         <v>1</v>
       </c>
@@ -22013,7 +22014,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="888" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="888" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A888" s="1" t="s">
         <v>1</v>
       </c>
@@ -22030,7 +22031,7 @@
         <v>2100</v>
       </c>
     </row>
-    <row r="889" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="889" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A889" s="1" t="s">
         <v>1</v>
       </c>
@@ -22050,7 +22051,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="890" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="890" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A890" s="1" t="s">
         <v>1</v>
       </c>
@@ -22067,7 +22068,7 @@
         <v>2200</v>
       </c>
     </row>
-    <row r="891" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="891" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A891" s="1" t="s">
         <v>1</v>
       </c>
@@ -22087,7 +22088,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="892" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="892" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A892" s="1" t="s">
         <v>1</v>
       </c>
@@ -22104,7 +22105,7 @@
         <v>700</v>
       </c>
     </row>
-    <row r="893" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="893" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A893" s="1" t="s">
         <v>1</v>
       </c>
@@ -22124,7 +22125,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="894" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="894" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A894" s="1" t="s">
         <v>1</v>
       </c>
@@ -22141,7 +22142,7 @@
         <v>800</v>
       </c>
     </row>
-    <row r="895" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="895" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A895" s="1" t="s">
         <v>1</v>
       </c>
@@ -22161,7 +22162,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="896" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="896" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A896" s="1" t="s">
         <v>1</v>
       </c>
@@ -22178,7 +22179,7 @@
         <v>900</v>
       </c>
     </row>
-    <row r="897" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="897" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A897" s="1" t="s">
         <v>1</v>
       </c>
@@ -22198,7 +22199,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="898" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="898" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A898" s="1" t="s">
         <v>1</v>
       </c>
@@ -22215,7 +22216,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="899" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="899" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A899" s="1" t="s">
         <v>1</v>
       </c>
@@ -22235,7 +22236,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="900" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="900" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A900" s="1" t="s">
         <v>1</v>
       </c>
@@ -22252,7 +22253,7 @@
         <v>1100</v>
       </c>
     </row>
-    <row r="901" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="901" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A901" s="1" t="s">
         <v>1</v>
       </c>
@@ -22272,7 +22273,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="902" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="902" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A902" s="1" t="s">
         <v>1</v>
       </c>
@@ -22289,7 +22290,7 @@
         <v>1200</v>
       </c>
     </row>
-    <row r="903" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="903" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A903" s="1" t="s">
         <v>1</v>
       </c>
@@ -22309,7 +22310,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="904" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="904" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A904" s="1" t="s">
         <v>1</v>
       </c>
@@ -22326,7 +22327,7 @@
         <v>1300</v>
       </c>
     </row>
-    <row r="905" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="905" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A905" s="1" t="s">
         <v>1</v>
       </c>
@@ -22346,7 +22347,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="906" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="906" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A906" s="1" t="s">
         <v>1</v>
       </c>
@@ -22363,7 +22364,7 @@
         <v>1400</v>
       </c>
     </row>
-    <row r="907" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="907" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A907" s="1" t="s">
         <v>1</v>
       </c>
@@ -22383,7 +22384,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="908" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="908" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A908" s="1" t="s">
         <v>1</v>
       </c>
@@ -22400,7 +22401,7 @@
         <v>1500</v>
       </c>
     </row>
-    <row r="909" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="909" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A909" s="1" t="s">
         <v>1</v>
       </c>
@@ -22420,7 +22421,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="910" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="910" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A910" s="1" t="s">
         <v>1</v>
       </c>
@@ -22437,7 +22438,7 @@
         <v>1600</v>
       </c>
     </row>
-    <row r="911" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="911" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A911" s="1" t="s">
         <v>1</v>
       </c>
@@ -22457,7 +22458,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="912" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="912" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A912" s="1" t="s">
         <v>1</v>
       </c>
@@ -22474,7 +22475,7 @@
         <v>1700</v>
       </c>
     </row>
-    <row r="913" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="913" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A913" s="1" t="s">
         <v>1</v>
       </c>
@@ -22494,7 +22495,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="914" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="914" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A914" s="1" t="s">
         <v>1</v>
       </c>
@@ -22511,7 +22512,7 @@
         <v>1800</v>
       </c>
     </row>
-    <row r="915" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="915" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A915" s="1" t="s">
         <v>1</v>
       </c>
@@ -22531,7 +22532,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="916" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="916" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A916" s="1" t="s">
         <v>1</v>
       </c>
@@ -22548,7 +22549,7 @@
         <v>1900</v>
       </c>
     </row>
-    <row r="917" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="917" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A917" s="1" t="s">
         <v>1</v>
       </c>
@@ -22568,7 +22569,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="918" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="918" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A918" s="1" t="s">
         <v>1</v>
       </c>
@@ -22585,7 +22586,7 @@
         <v>2000</v>
       </c>
     </row>
-    <row r="919" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="919" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A919" s="1" t="s">
         <v>1</v>
       </c>
@@ -22605,7 +22606,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="920" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="920" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A920" s="1" t="s">
         <v>1</v>
       </c>
@@ -22622,7 +22623,7 @@
         <v>2100</v>
       </c>
     </row>
-    <row r="921" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="921" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A921" s="1" t="s">
         <v>1</v>
       </c>
@@ -22642,7 +22643,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="922" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="922" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A922" s="1" t="s">
         <v>1</v>
       </c>
@@ -22659,7 +22660,7 @@
         <v>2200</v>
       </c>
     </row>
-    <row r="923" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="923" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A923" s="1" t="s">
         <v>1</v>
       </c>
@@ -22679,7 +22680,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="924" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="924" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A924" s="1" t="s">
         <v>1</v>
       </c>
@@ -22702,7 +22703,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="925" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="925" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A925" s="1" t="s">
         <v>1</v>
       </c>
@@ -22728,7 +22729,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="926" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="926" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A926" s="1" t="s">
         <v>1</v>
       </c>
@@ -22751,7 +22752,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="927" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="927" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A927" s="1" t="s">
         <v>1</v>
       </c>
@@ -22777,7 +22778,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="928" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="928" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A928" s="1" t="s">
         <v>1</v>
       </c>
@@ -22800,7 +22801,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="929" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="929" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A929" s="1" t="s">
         <v>1</v>
       </c>
@@ -22826,7 +22827,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="930" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="930" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A930" s="1" t="s">
         <v>1</v>
       </c>
@@ -22849,7 +22850,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="931" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="931" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A931" s="1" t="s">
         <v>1</v>
       </c>
@@ -22875,7 +22876,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="932" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="932" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A932" s="1" t="s">
         <v>1</v>
       </c>
@@ -22898,7 +22899,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="933" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="933" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A933" s="1" t="s">
         <v>1</v>
       </c>
@@ -22924,7 +22925,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="934" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="934" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A934" s="1" t="s">
         <v>1</v>
       </c>
@@ -22947,7 +22948,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="935" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="935" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A935" s="1" t="s">
         <v>1</v>
       </c>
@@ -22973,7 +22974,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="936" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="936" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A936" s="1" t="s">
         <v>1</v>
       </c>
@@ -22998,7 +22999,7 @@
       <c r="H936"/>
       <c r="I936"/>
     </row>
-    <row r="937" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="937" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A937" s="1" t="s">
         <v>1</v>
       </c>
@@ -23023,7 +23024,7 @@
       <c r="H937"/>
       <c r="I937"/>
     </row>
-    <row r="938" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="938" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A938" s="1" t="s">
         <v>1</v>
       </c>
@@ -23048,7 +23049,7 @@
       <c r="H938"/>
       <c r="I938"/>
     </row>
-    <row r="939" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="939" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A939" s="1" t="s">
         <v>1</v>
       </c>
@@ -23073,7 +23074,7 @@
       <c r="H939"/>
       <c r="I939"/>
     </row>
-    <row r="940" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="940" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A940" s="1" t="s">
         <v>1</v>
       </c>
@@ -23098,7 +23099,7 @@
       <c r="H940"/>
       <c r="I940"/>
     </row>
-    <row r="941" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="941" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A941" s="1" t="s">
         <v>1</v>
       </c>
@@ -23123,7 +23124,7 @@
       <c r="H941"/>
       <c r="I941"/>
     </row>
-    <row r="942" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="942" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A942" s="1" t="s">
         <v>1</v>
       </c>
@@ -23148,7 +23149,7 @@
       <c r="H942"/>
       <c r="I942"/>
     </row>
-    <row r="943" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="943" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A943" s="1" t="s">
         <v>1</v>
       </c>
@@ -23173,7 +23174,7 @@
       <c r="H943"/>
       <c r="I943"/>
     </row>
-    <row r="944" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="944" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A944" s="1" t="s">
         <v>1</v>
       </c>
@@ -23198,7 +23199,7 @@
       <c r="H944"/>
       <c r="I944"/>
     </row>
-    <row r="945" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="945" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A945" s="1" t="s">
         <v>1</v>
       </c>
@@ -23223,7 +23224,7 @@
       <c r="H945"/>
       <c r="I945"/>
     </row>
-    <row r="946" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="946" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A946" s="1" t="s">
         <v>1</v>
       </c>
@@ -23248,7 +23249,7 @@
       <c r="H946"/>
       <c r="I946"/>
     </row>
-    <row r="947" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="947" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A947" s="1" t="s">
         <v>1</v>
       </c>
@@ -23273,7 +23274,7 @@
       <c r="H947"/>
       <c r="I947"/>
     </row>
-    <row r="948" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="948" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A948" s="1" t="s">
         <v>1</v>
       </c>
@@ -23298,7 +23299,7 @@
       <c r="H948"/>
       <c r="I948"/>
     </row>
-    <row r="949" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="949" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A949" s="1" t="s">
         <v>1</v>
       </c>
@@ -23323,7 +23324,7 @@
       <c r="H949"/>
       <c r="I949"/>
     </row>
-    <row r="950" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="950" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A950" s="1" t="s">
         <v>1</v>
       </c>
@@ -25331,7 +25332,12 @@
       <c r="I1091"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:I1025">
+  <autoFilter ref="A1:I1091">
+    <filterColumn colId="0">
+      <filters>
+        <filter val="인쇄용지"/>
+      </filters>
+    </filterColumn>
     <sortState ref="A2:I1025">
       <sortCondition ref="A1:A1025"/>
     </sortState>
